--- a/tests/test1/d40/ЛМ, 0.3.xlsx
+++ b/tests/test1/d40/ЛМ, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,13 +582,13 @@
         <v>359.9309164399847</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56180151380023</v>
+        <v>40.56180151380021</v>
       </c>
       <c r="G2" t="n">
-        <v>97.32108134278515</v>
+        <v>97.32108134278519</v>
       </c>
       <c r="H2" t="n">
-        <v>11.93140046903267</v>
+        <v>11.93140046903266</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>22.98667446233144</v>
       </c>
       <c r="P2" t="n">
-        <v>39.23645718112293</v>
+        <v>39.23645718112289</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03137878316684703</v>
+        <v>0.03137878316684942</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7752152142988269</v>
+        <v>0.7752152142988553</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3599110818463732</v>
+        <v>0.3599110818463991</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2567341952932716</v>
+        <v>0.2567341952932906</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08988047072563873</v>
+        <v>0.08988047072563859</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1712848324078125</v>
+        <v>0.1712848324078065</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002895699999999835</v>
+        <v>0.002717900000000384</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,10 +664,10 @@
         <v>0.004716688158992463</v>
       </c>
       <c r="F3" t="n">
-        <v>39.10277740616311</v>
+        <v>39.10277740616312</v>
       </c>
       <c r="G3" t="n">
-        <v>75.5645661222995</v>
+        <v>75.56456612229948</v>
       </c>
       <c r="H3" t="n">
         <v>11.22288638120957</v>
@@ -694,25 +694,25 @@
         <v>19.63604876022843</v>
       </c>
       <c r="P3" t="n">
-        <v>42.3038314075962</v>
+        <v>42.30383140759621</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03017416423262742</v>
+        <v>0.03017416423262921</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7269280701992413</v>
+        <v>0.7269280701993035</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3304608640252437</v>
+        <v>0.3304608640252802</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3550799699478199</v>
+        <v>0.3550799699478468</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08946370342917807</v>
+        <v>0.08946370342917814</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1647608984385545</v>
+        <v>0.1647608984385534</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.004127900000000295</v>
+        <v>0.001953200000002653</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>40.64816843688953</v>
       </c>
       <c r="G4" t="n">
-        <v>94.65821130243039</v>
+        <v>94.65821130243003</v>
       </c>
       <c r="H4" t="n">
-        <v>3.211661429793994</v>
+        <v>3.211661429793996</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>7.608232050145697</v>
       </c>
       <c r="P4" t="n">
-        <v>38.05381401741962</v>
+        <v>38.05381401741965</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02828225523453897</v>
+        <v>0.0282822552345394</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6094531235355509</v>
+        <v>0.6094531235355642</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1448836003269945</v>
+        <v>0.1448836003269996</v>
       </c>
       <c r="T4" t="n">
-        <v>0.760357797262189</v>
+        <v>0.7603577972622064</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09494136846890096</v>
+        <v>0.0949413684689011</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5125679442431692</v>
+        <v>0.5125679442431568</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002673099999999096</v>
+        <v>0.001603000000002908</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,10 +828,10 @@
         <v>0.06986954601454889</v>
       </c>
       <c r="F5" t="n">
-        <v>39.03514678643356</v>
+        <v>39.03514678643355</v>
       </c>
       <c r="G5" t="n">
-        <v>101.5104447363927</v>
+        <v>101.5104447363928</v>
       </c>
       <c r="H5" t="n">
         <v>11.01979010698583</v>
@@ -855,28 +855,28 @@
         <v>38.17369412214205</v>
       </c>
       <c r="O5" t="n">
-        <v>22.76546470733753</v>
+        <v>22.76546470733754</v>
       </c>
       <c r="P5" t="n">
-        <v>36.63390926968967</v>
+        <v>36.63390926968965</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02915343178612227</v>
+        <v>0.02915343178612305</v>
       </c>
       <c r="R5" t="n">
-        <v>0.69966319446459</v>
+        <v>0.6996631944645698</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3207395456215466</v>
+        <v>0.3207395456215431</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2424132002960208</v>
+        <v>0.2424132002960289</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09397277128360934</v>
+        <v>0.09397277128360944</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2387821125127385</v>
+        <v>0.2387821125127412</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005081500000001071</v>
+        <v>0.002095599999996978</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
         <v>40.18382075474895</v>
       </c>
       <c r="G6" t="n">
-        <v>174.7868262563023</v>
+        <v>174.7868262563024</v>
       </c>
       <c r="H6" t="n">
-        <v>10.18532399233</v>
+        <v>10.18532399233001</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>25.49805312612867</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02355421639358487</v>
+        <v>0.02355421639358444</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5175537888300243</v>
+        <v>0.5175537888300207</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07910450728447156</v>
+        <v>0.07910450728446944</v>
       </c>
       <c r="T6" t="n">
-        <v>0.775704894847244</v>
+        <v>0.7757048948472219</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0846709147777379</v>
+        <v>0.08467091477773786</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2289766035241507</v>
+        <v>0.2289766035241526</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002125599999999395</v>
+        <v>0.00170519999999641</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -995,10 +995,10 @@
         <v>40.69861881895731</v>
       </c>
       <c r="G7" t="n">
-        <v>39.44439565144811</v>
+        <v>39.44439565144813</v>
       </c>
       <c r="H7" t="n">
-        <v>14.10498389916417</v>
+        <v>14.10498389916416</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>52.51701212410715</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03226556007479427</v>
+        <v>0.03226556007479393</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8119832332640478</v>
+        <v>0.8119832332639939</v>
       </c>
       <c r="S7" t="n">
-        <v>0.307461246673867</v>
+        <v>0.3074612466738469</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6744873488342743</v>
+        <v>0.6744873488342549</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08632443321877331</v>
+        <v>0.08632443321877326</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1901901130141942</v>
+        <v>0.1901901130141928</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.005491799999999714</v>
+        <v>0.001775399999999649</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>0.01478055333167712</v>
       </c>
       <c r="F8" t="n">
-        <v>39.79503286567356</v>
+        <v>39.79503286567355</v>
       </c>
       <c r="G8" t="n">
         <v>163.1925676817637</v>
       </c>
       <c r="H8" t="n">
-        <v>7.552829767589261</v>
+        <v>7.552829767589259</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>7.596873819859391</v>
       </c>
       <c r="P8" t="n">
-        <v>28.75483171525537</v>
+        <v>28.75483171525536</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0258163903692603</v>
+        <v>0.02581639036925957</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4882341448193068</v>
+        <v>0.4882341448193044</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1114200426478273</v>
+        <v>0.1114200426478208</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6262466094334708</v>
+        <v>0.6262466094334513</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08358847534075223</v>
+        <v>0.08358847534075221</v>
       </c>
       <c r="V8" t="n">
         <v>0.3241155130014738</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002128299999998973</v>
+        <v>0.001554099999999892</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>0.03372383963284853</v>
       </c>
       <c r="F9" t="n">
-        <v>38.72802882053964</v>
+        <v>38.72802882053965</v>
       </c>
       <c r="G9" t="n">
-        <v>13.70804083687739</v>
+        <v>13.70804083687741</v>
       </c>
       <c r="H9" t="n">
-        <v>11.38393476295815</v>
+        <v>11.38393476295814</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1183,28 +1183,28 @@
         <v>52.00243301911608</v>
       </c>
       <c r="O9" t="n">
-        <v>5.126648779149821</v>
+        <v>5.126648779149833</v>
       </c>
       <c r="P9" t="n">
         <v>49.58161329897754</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02797670366104444</v>
+        <v>0.02797670366104432</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7658689982472303</v>
+        <v>0.7658689982472264</v>
       </c>
       <c r="S9" t="n">
-        <v>0.139096388466986</v>
+        <v>0.1390963884669858</v>
       </c>
       <c r="T9" t="n">
-        <v>1.185293556286785</v>
+        <v>1.185293556286778</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08537702517620216</v>
+        <v>0.08537702517620217</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2879819049655879</v>
+        <v>0.28798190496559</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002569699999998676</v>
+        <v>0.001693500000001791</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,7 +1238,7 @@
         <v>359.9739412816208</v>
       </c>
       <c r="F10" t="n">
-        <v>40.5973984569569</v>
+        <v>40.59739845695691</v>
       </c>
       <c r="G10" t="n">
         <v>156.4703725754116</v>
@@ -1268,25 +1268,25 @@
         <v>20.59165129298744</v>
       </c>
       <c r="P10" t="n">
-        <v>23.29732136352233</v>
+        <v>23.29732136352234</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02856224137917044</v>
+        <v>0.02856224137916677</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5970004730342974</v>
+        <v>0.5970004730341608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2021810990984511</v>
+        <v>0.2021810990984025</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1972629619095442</v>
+        <v>0.1972629619095413</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09850157970073696</v>
+        <v>0.09850157970073703</v>
       </c>
       <c r="V10" t="n">
-        <v>0.08030596857892272</v>
+        <v>0.08030596857892319</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00220859999999945</v>
+        <v>0.001801499999999123</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1320,13 +1320,13 @@
         <v>359.9885549821005</v>
       </c>
       <c r="F11" t="n">
-        <v>40.6927870435632</v>
+        <v>40.69278704356321</v>
       </c>
       <c r="G11" t="n">
         <v>2.094481960130714</v>
       </c>
       <c r="H11" t="n">
-        <v>8.319113483752021</v>
+        <v>8.319113483752011</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>1.820321272070956</v>
       </c>
       <c r="P11" t="n">
-        <v>48.07695221727312</v>
+        <v>48.0769522172731</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02408196522733137</v>
+        <v>0.0240819652273316</v>
       </c>
       <c r="R11" t="n">
-        <v>1.285881501768917</v>
+        <v>1.285881501768944</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07803651056278213</v>
+        <v>0.07803651056278331</v>
       </c>
       <c r="T11" t="n">
-        <v>2.022818446204012</v>
+        <v>2.022818446204061</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09423119413440789</v>
+        <v>0.09423119413440795</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2084264129529275</v>
+        <v>0.208426412952931</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.004929199999999412</v>
+        <v>0.00142240000000271</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9755877574675</v>
       </c>
       <c r="F12" t="n">
-        <v>40.10339481840525</v>
+        <v>40.10339481840526</v>
       </c>
       <c r="G12" t="n">
-        <v>139.3839841967651</v>
+        <v>139.383984196765</v>
       </c>
       <c r="H12" t="n">
-        <v>3.327605160217612</v>
+        <v>3.327605160217609</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>6.215991736764381</v>
       </c>
       <c r="P12" t="n">
-        <v>34.65966077595568</v>
+        <v>34.6596607759557</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0264563944194498</v>
+        <v>0.02645639441944973</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5790658140383133</v>
+        <v>0.5790658140383131</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1150676611431422</v>
+        <v>0.1150676611431415</v>
       </c>
       <c r="T12" t="n">
         <v>0.8183049735310582</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08006197172592053</v>
+        <v>0.08006197172592049</v>
       </c>
       <c r="V12" t="n">
-        <v>0.08088631873914945</v>
+        <v>0.08088631873914701</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001977799999998808</v>
+        <v>0.002207900000001928</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1490,7 +1490,7 @@
         <v>31.4917965885179</v>
       </c>
       <c r="H13" t="n">
-        <v>3.028372654787813</v>
+        <v>3.028372654787814</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>39.32912256039749</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02545104570616809</v>
+        <v>0.02545104570616764</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6890537174700182</v>
+        <v>0.6890537174700172</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1023978367854912</v>
+        <v>0.102397836785489</v>
       </c>
       <c r="T13" t="n">
-        <v>1.080522723292179</v>
+        <v>1.080522723292154</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08667234410581566</v>
+        <v>0.08667234410581565</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2630529664955723</v>
+        <v>0.263052966495572</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004973400000000794</v>
+        <v>0.001798399999998423</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,7 +1566,7 @@
         <v>0.02800289665309422</v>
       </c>
       <c r="F14" t="n">
-        <v>41.08224266053175</v>
+        <v>41.08224266053174</v>
       </c>
       <c r="G14" t="n">
         <v>27.25266095982158</v>
@@ -1596,25 +1596,25 @@
         <v>8.913324947522957</v>
       </c>
       <c r="P14" t="n">
-        <v>52.61730599862723</v>
+        <v>52.61730599862721</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03149190258973509</v>
+        <v>0.03149190258973469</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7876833113828982</v>
+        <v>0.7876833113828831</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2274065424395902</v>
+        <v>0.2274065424395807</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8897743531447672</v>
+        <v>0.889774353144745</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0906256400689552</v>
+        <v>0.09062564006895517</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2540229465026971</v>
+        <v>0.2540229465026957</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001976100000000258</v>
+        <v>0.001650900000001343</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1651,10 +1651,10 @@
         <v>40.24008623514331</v>
       </c>
       <c r="G15" t="n">
-        <v>138.808102269123</v>
+        <v>138.8081022691231</v>
       </c>
       <c r="H15" t="n">
-        <v>5.821224056712157</v>
+        <v>5.821224056712162</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>10.10678753808423</v>
       </c>
       <c r="P15" t="n">
-        <v>32.87727870656062</v>
+        <v>32.87727870656061</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02795073820242088</v>
+        <v>0.02795073820242096</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5507412667144871</v>
+        <v>0.5507412667145116</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1540865199011924</v>
+        <v>0.1540865199012009</v>
       </c>
       <c r="T15" t="n">
-        <v>0.535251586052464</v>
+        <v>0.5352515860524616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07894163545125274</v>
+        <v>0.07894163545125278</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06989664388988226</v>
+        <v>0.06989664388987678</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.001989399999999364</v>
+        <v>0.001586799999998334</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>0.05461515270610271</v>
       </c>
       <c r="F16" t="n">
-        <v>39.80574772332135</v>
+        <v>39.80574772332136</v>
       </c>
       <c r="G16" t="n">
         <v>92.06209312184805</v>
       </c>
       <c r="H16" t="n">
-        <v>12.20616345685345</v>
+        <v>12.20616345685346</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>23.37512672068458</v>
       </c>
       <c r="P16" t="n">
-        <v>39.94034230735044</v>
+        <v>39.94034230735045</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03021981712852169</v>
+        <v>0.03021981712852096</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7618427648421243</v>
+        <v>0.7618427648420979</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3664753426638687</v>
+        <v>0.3664753426638544</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2617914897025009</v>
+        <v>0.2617914897024962</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0934892197478837</v>
+        <v>0.09348921974788374</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03295498510540037</v>
+        <v>0.03295498510539935</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002528800000000331</v>
+        <v>0.003163399999998262</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>0.01656039469547206</v>
       </c>
       <c r="F17" t="n">
-        <v>39.86464067125562</v>
+        <v>39.86464067125563</v>
       </c>
       <c r="G17" t="n">
         <v>153.5431983117118</v>
       </c>
       <c r="H17" t="n">
-        <v>5.202124809361765</v>
+        <v>5.202124809361764</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         <v>7.135239512378357</v>
       </c>
       <c r="P17" t="n">
-        <v>31.90659908240006</v>
+        <v>31.90659908240007</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02632052168825005</v>
+        <v>0.02632052168824996</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5292540648301678</v>
+        <v>0.5292540648301737</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1167339750818046</v>
+        <v>0.1167339750818043</v>
       </c>
       <c r="T17" t="n">
         <v>0.7015239508375878</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09014455775078027</v>
+        <v>0.09014455775078029</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05906686425448952</v>
+        <v>0.05906686425448836</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.001985599999999366</v>
+        <v>0.001685899999998242</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.01075832979037316</v>
       </c>
       <c r="F18" t="n">
-        <v>38.69523069400903</v>
+        <v>38.69523069400904</v>
       </c>
       <c r="G18" t="n">
-        <v>41.34444362115233</v>
+        <v>41.3444436211523</v>
       </c>
       <c r="H18" t="n">
-        <v>8.534077797243318</v>
+        <v>8.534077797243327</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>10.28585328821518</v>
       </c>
       <c r="P18" t="n">
-        <v>44.48210318493767</v>
+        <v>44.4821031849377</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02905688354628617</v>
+        <v>0.02905688354628579</v>
       </c>
       <c r="R18" t="n">
-        <v>0.648807651103255</v>
+        <v>0.6488076511032204</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2033513476372321</v>
+        <v>0.2033513476372217</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6661121869252128</v>
+        <v>0.6661121869251988</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07678204018036285</v>
+        <v>0.07678204018036282</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3148959197574291</v>
+        <v>0.3148959197574243</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002027999999999253</v>
+        <v>0.002024200000001031</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9461333473179</v>
       </c>
       <c r="F19" t="n">
-        <v>39.83337102973494</v>
+        <v>39.83337102973498</v>
       </c>
       <c r="G19" t="n">
-        <v>50.40293755397511</v>
+        <v>50.40293755397506</v>
       </c>
       <c r="H19" t="n">
-        <v>9.891285669149859</v>
+        <v>9.891285669149879</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>45.29448328127268</v>
       </c>
       <c r="O19" t="n">
-        <v>12.9273269391253</v>
+        <v>12.92732693912529</v>
       </c>
       <c r="P19" t="n">
-        <v>45.94699817647184</v>
+        <v>45.9469981764719</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03070975766437731</v>
+        <v>0.03070975766437743</v>
       </c>
       <c r="R19" t="n">
-        <v>0.715795829829933</v>
+        <v>0.7157958298299438</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2578447112690684</v>
+        <v>0.257844711269072</v>
       </c>
       <c r="T19" t="n">
         <v>0.5771160529479332</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09273307710097871</v>
+        <v>0.09273307710097886</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2360460214163752</v>
+        <v>0.2360460214163839</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002213499999999868</v>
+        <v>0.001919200000003229</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.8994110435325</v>
       </c>
       <c r="F20" t="n">
-        <v>40.84488681956732</v>
+        <v>40.84488681956734</v>
       </c>
       <c r="G20" t="n">
-        <v>113.4049668744822</v>
+        <v>113.4049668744823</v>
       </c>
       <c r="H20" t="n">
-        <v>9.314243162443443</v>
+        <v>9.314243162443452</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>34.20258136458548</v>
       </c>
       <c r="O20" t="n">
-        <v>18.57724734686505</v>
+        <v>18.57724734686507</v>
       </c>
       <c r="P20" t="n">
         <v>35.64594587431615</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03082524554627806</v>
+        <v>0.03082524554627825</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6998911552388184</v>
+        <v>0.6998911552389009</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2721373441996146</v>
+        <v>0.2721373441996372</v>
       </c>
       <c r="T20" t="n">
-        <v>0.299180028617219</v>
+        <v>0.2991800286172157</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09190053747765815</v>
+        <v>0.09190053747765814</v>
       </c>
       <c r="V20" t="n">
-        <v>0.247680208039257</v>
+        <v>0.2476802080392652</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004241099999999776</v>
+        <v>0.002163599999995824</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>0.006154274490299174</v>
       </c>
       <c r="F21" t="n">
-        <v>39.63238253705269</v>
+        <v>39.63238253705268</v>
       </c>
       <c r="G21" t="n">
-        <v>16.99255826177727</v>
+        <v>16.99255826177726</v>
       </c>
       <c r="H21" t="n">
-        <v>12.5664496073346</v>
+        <v>12.56644960733461</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2173,22 +2173,22 @@
         <v>51.73938297326779</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02944280543020883</v>
+        <v>0.02944280543020842</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7659357481678751</v>
+        <v>0.765935748167886</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1674334820621233</v>
+        <v>0.1674334820621206</v>
       </c>
       <c r="T21" t="n">
-        <v>1.098582474030972</v>
+        <v>1.098582474030951</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08683663303515307</v>
+        <v>0.08683663303515296</v>
       </c>
       <c r="V21" t="n">
-        <v>0.108602219950873</v>
+        <v>0.1086022199508768</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001763400000001525</v>
+        <v>0.001490300000000389</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2225,10 +2225,10 @@
         <v>39.04123600249484</v>
       </c>
       <c r="G22" t="n">
-        <v>106.8969093234491</v>
+        <v>106.8969093234492</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31129070369582</v>
+        <v>13.31129070369581</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2255,22 +2255,22 @@
         <v>35.8007243414928</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02939691059136813</v>
+        <v>0.02939691059136351</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7358551547455002</v>
+        <v>0.7358551547451777</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3707049345383535</v>
+        <v>0.3707049345381866</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1796620087154638</v>
+        <v>0.1796620087154608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08479807077015597</v>
+        <v>0.0847980707701559</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1740463462753171</v>
+        <v>0.1740463462753192</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002701999999999316</v>
+        <v>0.002336599999999578</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2307,10 +2307,10 @@
         <v>41.07400893859641</v>
       </c>
       <c r="G23" t="n">
-        <v>8.882768854676209</v>
+        <v>8.882768854676197</v>
       </c>
       <c r="H23" t="n">
-        <v>7.739818106285455</v>
+        <v>7.739818106285466</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>47.70360153397441</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02648128103121699</v>
+        <v>0.02648128103121731</v>
       </c>
       <c r="R23" t="n">
-        <v>0.980530405021021</v>
+        <v>0.9805304050210277</v>
       </c>
       <c r="S23" t="n">
         <v>0.1023480949079547</v>
       </c>
       <c r="T23" t="n">
-        <v>1.586284147054787</v>
+        <v>1.58628414705481</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09116580212786474</v>
+        <v>0.0911658021278647</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6153047807961243</v>
+        <v>0.615304780796129</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001826700000000514</v>
+        <v>0.001471099999996284</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>0.004398425448663788</v>
       </c>
       <c r="F24" t="n">
-        <v>40.91991292224947</v>
+        <v>40.91991292224946</v>
       </c>
       <c r="G24" t="n">
-        <v>40.90060726489992</v>
+        <v>40.90060726489997</v>
       </c>
       <c r="H24" t="n">
-        <v>8.213867976417676</v>
+        <v>8.21386797641766</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>9.464284061015508</v>
       </c>
       <c r="P24" t="n">
-        <v>46.38503814818056</v>
+        <v>46.38503814818051</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0305741271528121</v>
+        <v>0.03057412715281208</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7152402563279618</v>
+        <v>0.715240256327994</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2074144884943037</v>
+        <v>0.2074144884943078</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7520489056299084</v>
+        <v>0.7520489056299051</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09928728057424696</v>
+        <v>0.09928728057424695</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2577141885154156</v>
+        <v>0.2577141885154201</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002020299999999864</v>
+        <v>0.001716399999999396</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2501,22 +2501,22 @@
         <v>40.61998689115104</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03086988756222247</v>
+        <v>0.03086988756222297</v>
       </c>
       <c r="R25" t="n">
-        <v>0.7991502002869652</v>
+        <v>0.7991502002870424</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4239369889606436</v>
+        <v>0.4239369889606783</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2199627594108041</v>
+        <v>0.2199627594108062</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08245954645179956</v>
+        <v>0.08245954645179965</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03179020417775467</v>
+        <v>0.03179020417775437</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002768299999999613</v>
+        <v>0.002307899999998142</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2556,7 +2556,7 @@
         <v>171.6537885712743</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39610062490689</v>
+        <v>10.3961006249069</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2580,13 +2580,13 @@
         <v>6.896138749662972</v>
       </c>
       <c r="P26" t="n">
-        <v>24.56127723822347</v>
+        <v>24.56127723822346</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02407019561955657</v>
+        <v>0.02407019561955656</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4420001941173119</v>
+        <v>0.4420001941173173</v>
       </c>
       <c r="S26" t="n">
         <v>0.09123177537179115</v>
@@ -2595,10 +2595,10 @@
         <v>0.6089563443913488</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08751313576179179</v>
+        <v>0.08751313576179182</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2888309317356827</v>
+        <v>0.2888309317356798</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.001958800000000593</v>
+        <v>0.001617000000003088</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2632,13 +2632,13 @@
         <v>0.005646517067351374</v>
       </c>
       <c r="F27" t="n">
-        <v>40.78678940430027</v>
+        <v>40.78678940430024</v>
       </c>
       <c r="G27" t="n">
         <v>156.2388397115764</v>
       </c>
       <c r="H27" t="n">
-        <v>10.16504028547899</v>
+        <v>10.16504028547897</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>12.7065083586006</v>
       </c>
       <c r="P27" t="n">
-        <v>27.68437251973286</v>
+        <v>27.68437251973284</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02798462030291196</v>
+        <v>0.02798462030291276</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5341774166639079</v>
+        <v>0.5341774166639145</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1594484829372073</v>
+        <v>0.1594484829372121</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3801937514599295</v>
+        <v>0.3801937514599364</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09615159950526921</v>
+        <v>0.09615159950526932</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1055959643602425</v>
+        <v>0.1055959643602377</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003678400000000082</v>
+        <v>0.001664400000002786</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2714,13 +2714,13 @@
         <v>0.02057573293246094</v>
       </c>
       <c r="F28" t="n">
-        <v>40.08353176763992</v>
+        <v>40.0835317676399</v>
       </c>
       <c r="G28" t="n">
-        <v>57.25719450765888</v>
+        <v>57.25719450765889</v>
       </c>
       <c r="H28" t="n">
-        <v>8.956403772645141</v>
+        <v>8.956403772645134</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>13.2922038998422</v>
       </c>
       <c r="P28" t="n">
-        <v>44.47164249625462</v>
+        <v>44.4716424962546</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03045163032446247</v>
+        <v>0.03045163032446149</v>
       </c>
       <c r="R28" t="n">
-        <v>0.7099485428421187</v>
+        <v>0.7099485428420668</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2551721720322796</v>
+        <v>0.2551721720322555</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5463619370474854</v>
+        <v>0.5463619370474569</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08641452354893762</v>
+        <v>0.08641452354893775</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1425870538665964</v>
+        <v>0.1425870538665998</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002645700000000417</v>
+        <v>0.001837599999994666</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.9348568669783</v>
       </c>
       <c r="F29" t="n">
-        <v>40.19887905543003</v>
+        <v>40.19887905543005</v>
       </c>
       <c r="G29" t="n">
         <v>75.52186037913647</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09386459482787</v>
+        <v>13.09386459482788</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>21.48429413568936</v>
       </c>
       <c r="P29" t="n">
-        <v>44.61043920294705</v>
+        <v>44.61043920294706</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03175966856637411</v>
+        <v>0.03175966856637705</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8023403080703897</v>
+        <v>0.8023403080705526</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3886636486999433</v>
+        <v>0.3886636487000277</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3445098919550092</v>
+        <v>0.3445098919550508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09315970899660046</v>
+        <v>0.09315970899660055</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1215059514457562</v>
+        <v>0.1215059514457578</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002663199999998866</v>
+        <v>0.001961299999997834</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9947407495405</v>
       </c>
       <c r="F30" t="n">
-        <v>39.93548478968079</v>
+        <v>39.93548478968076</v>
       </c>
       <c r="G30" t="n">
-        <v>130.7275755780934</v>
+        <v>130.7275755780935</v>
       </c>
       <c r="H30" t="n">
-        <v>9.688849838492059</v>
+        <v>9.688849838492054</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>31.31086349853181</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5504064976509</v>
+        <v>18.55040649765089</v>
       </c>
       <c r="P30" t="n">
-        <v>31.36265428728369</v>
+        <v>31.36265428728366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02904118490408197</v>
+        <v>0.02904118490408029</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6297138318585572</v>
+        <v>0.6297138318585367</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2350594200474189</v>
+        <v>0.2350594200474037</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2661769284470238</v>
+        <v>0.2661769284470166</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08625548858982604</v>
+        <v>0.08625548858982601</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02896010931147457</v>
+        <v>0.02896010931146661</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002470600000000545</v>
+        <v>0.001783699999997168</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2966,7 +2966,7 @@
         <v>151.1737398924805</v>
       </c>
       <c r="H31" t="n">
-        <v>5.861007675161602</v>
+        <v>5.861007675161601</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>8.20163953493976</v>
       </c>
       <c r="P31" t="n">
-        <v>31.8319498991961</v>
+        <v>31.83194989919611</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02705898976247915</v>
+        <v>0.02705898976247853</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5293182583364157</v>
+        <v>0.5293182583364151</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1293134856254347</v>
+        <v>0.1293134856254299</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6276706628758622</v>
+        <v>0.6276706628758465</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09050487204923645</v>
+        <v>0.09050487204923642</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3918568051252475</v>
+        <v>0.3918568051252481</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00204790000000088</v>
+        <v>0.001810599999998885</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3042,13 +3042,13 @@
         <v>0.03059099781932944</v>
       </c>
       <c r="F32" t="n">
-        <v>39.22944008328821</v>
+        <v>39.22944008328822</v>
       </c>
       <c r="G32" t="n">
         <v>117.0973438551547</v>
       </c>
       <c r="H32" t="n">
-        <v>7.382914503026142</v>
+        <v>7.382914503026143</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3069,28 +3069,28 @@
         <v>34.69011036954826</v>
       </c>
       <c r="O32" t="n">
-        <v>15.5716267550782</v>
+        <v>15.57162675507819</v>
       </c>
       <c r="P32" t="n">
-        <v>33.81883822253092</v>
+        <v>33.81883822253093</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02848544727606309</v>
+        <v>0.02848544727606462</v>
       </c>
       <c r="R32" t="n">
-        <v>0.600641404151106</v>
+        <v>0.6006414041510989</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2154222656178007</v>
+        <v>0.215422265617809</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3524532624784781</v>
+        <v>0.3524532624785003</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08941200110140297</v>
+        <v>0.08941200110140299</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1430149606149941</v>
+        <v>0.1430149606150006</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003874599999999617</v>
+        <v>0.00184759999999784</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,13 +3124,13 @@
         <v>0.05200244597329319</v>
       </c>
       <c r="F33" t="n">
-        <v>39.43472216467791</v>
+        <v>39.43472216467789</v>
       </c>
       <c r="G33" t="n">
-        <v>51.09543987351606</v>
+        <v>51.09543987351609</v>
       </c>
       <c r="H33" t="n">
-        <v>14.26394928190003</v>
+        <v>14.26394928190002</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,25 +3154,25 @@
         <v>16.98166037021575</v>
       </c>
       <c r="P33" t="n">
-        <v>49.73668804655738</v>
+        <v>49.73668804655735</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03103442243113829</v>
+        <v>0.03103442243113845</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7856819719201521</v>
+        <v>0.7856819719202118</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3526208977067818</v>
+        <v>0.352620897706809</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5176138811355888</v>
+        <v>0.5176138811356065</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09228094790620396</v>
+        <v>0.09228094790620395</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0891110125169336</v>
+        <v>0.08911101251693568</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002672999999999703</v>
+        <v>0.002025299999999675</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3239,22 +3239,22 @@
         <v>29.75923455453627</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02680933193074411</v>
+        <v>0.02680933193074391</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4986502806041252</v>
+        <v>0.4986502806041491</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1352976100414574</v>
+        <v>0.135297610041461</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5138966692415007</v>
+        <v>0.5138966692414921</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09093074513802742</v>
+        <v>0.0909307451380274</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1701190796187647</v>
+        <v>0.1701190796187649</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002130100000000468</v>
+        <v>0.00197599999999909</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3288,13 +3288,13 @@
         <v>0.08892582656431208</v>
       </c>
       <c r="F35" t="n">
-        <v>39.71789145245283</v>
+        <v>39.71789145245282</v>
       </c>
       <c r="G35" t="n">
         <v>50.73242764087622</v>
       </c>
       <c r="H35" t="n">
-        <v>7.163049917740316</v>
+        <v>7.163049917740313</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>10.50279198159769</v>
       </c>
       <c r="P35" t="n">
-        <v>43.26693529798656</v>
+        <v>43.26693529798654</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02943028606649488</v>
+        <v>0.02943028606649506</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6598729673377597</v>
+        <v>0.6598729673377773</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2040625478128305</v>
+        <v>0.2040625478128409</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6475534665309566</v>
+        <v>0.6475534665309695</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0864051775954649</v>
+        <v>0.08640517759546484</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5950139153567044</v>
+        <v>0.5950139153567058</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002042600000001116</v>
+        <v>0.00165930000000003</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3370,13 +3370,13 @@
         <v>359.9863214433038</v>
       </c>
       <c r="F36" t="n">
-        <v>40.38615307846442</v>
+        <v>40.38615307846441</v>
       </c>
       <c r="G36" t="n">
-        <v>7.454298633283199</v>
+        <v>7.454298633283186</v>
       </c>
       <c r="H36" t="n">
-        <v>11.74804541761823</v>
+        <v>11.74804541761826</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,25 +3400,25 @@
         <v>3.306608210942002</v>
       </c>
       <c r="P36" t="n">
-        <v>51.83459561029569</v>
+        <v>51.83459561029571</v>
       </c>
       <c r="Q36" t="n">
         <v>0.02736987776039653</v>
       </c>
       <c r="R36" t="n">
-        <v>0.991318201434792</v>
+        <v>0.9913182014347907</v>
       </c>
       <c r="S36" t="n">
-        <v>0.114004741034607</v>
+        <v>0.1140047410346077</v>
       </c>
       <c r="T36" t="n">
         <v>1.620671655230969</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08597975893932158</v>
+        <v>0.08597975893932157</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1612887296832514</v>
+        <v>0.1612887296832448</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001786599999999083</v>
+        <v>0.001398899999998093</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9806547436256</v>
       </c>
       <c r="F37" t="n">
-        <v>40.20036480451051</v>
+        <v>40.2003648045105</v>
       </c>
       <c r="G37" t="n">
-        <v>83.67162804820026</v>
+        <v>83.6716280482003</v>
       </c>
       <c r="H37" t="n">
-        <v>6.750010594069176</v>
+        <v>6.750010594069173</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>13.45784591140002</v>
       </c>
       <c r="P37" t="n">
-        <v>39.56318532353843</v>
+        <v>39.56318532353841</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02991352328362009</v>
+        <v>0.02991352328361964</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6619744891733835</v>
+        <v>0.661974489173443</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2285913295068173</v>
+        <v>0.2285913295068315</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4762891212986464</v>
+        <v>0.4762891212986379</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09393490900946498</v>
+        <v>0.09393490900946506</v>
       </c>
       <c r="V37" t="n">
-        <v>0.07165341325305491</v>
+        <v>0.07165341325305474</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002224299999999957</v>
+        <v>0.00179899999999833</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,7 +3534,7 @@
         <v>0.02824338212438082</v>
       </c>
       <c r="F38" t="n">
-        <v>39.50417959718663</v>
+        <v>39.50417959718662</v>
       </c>
       <c r="G38" t="n">
         <v>132.2538844454096</v>
@@ -3564,25 +3564,25 @@
         <v>19.54093043174959</v>
       </c>
       <c r="P38" t="n">
-        <v>30.46609388248613</v>
+        <v>30.46609388248612</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02855431469320796</v>
+        <v>0.02855431469320912</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6200253365228019</v>
+        <v>0.6200253365228472</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2364145712524284</v>
+        <v>0.2364145712524453</v>
       </c>
       <c r="T38" t="n">
-        <v>0.243284235066804</v>
+        <v>0.2432842350668104</v>
       </c>
       <c r="U38" t="n">
         <v>0.09953708385958776</v>
       </c>
       <c r="V38" t="n">
-        <v>0.08443720484978184</v>
+        <v>0.0844372048497828</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.002209499999999309</v>
+        <v>0.001884500000002731</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -3622,7 +3622,7 @@
         <v>167.1156701705664</v>
       </c>
       <c r="H39" t="n">
-        <v>7.54315870652461</v>
+        <v>7.543158706524609</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3646,25 +3646,25 @@
         <v>6.25398747254784</v>
       </c>
       <c r="P39" t="n">
-        <v>28.9351330552508</v>
+        <v>28.93513305525081</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.02519311953000505</v>
+        <v>0.02519311953000472</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5144660857853223</v>
+        <v>0.5144660857853175</v>
       </c>
       <c r="S39" t="n">
-        <v>0.09930521490710301</v>
+        <v>0.09930521490710219</v>
       </c>
       <c r="T39" t="n">
-        <v>0.728132339302019</v>
+        <v>0.7281323393020099</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08684388620149021</v>
+        <v>0.08684388620149026</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4809334704477735</v>
+        <v>0.480933470447774</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002650199999999714</v>
+        <v>0.001599200000001133</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3698,13 +3698,13 @@
         <v>359.9344262293206</v>
       </c>
       <c r="F40" t="n">
-        <v>40.34605628260277</v>
+        <v>40.34605628260276</v>
       </c>
       <c r="G40" t="n">
-        <v>68.98980435171144</v>
+        <v>68.98980435171146</v>
       </c>
       <c r="H40" t="n">
-        <v>13.57468769813394</v>
+        <v>13.57468769813393</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3728,25 +3728,25 @@
         <v>20.54698902942415</v>
       </c>
       <c r="P40" t="n">
-        <v>46.53007968190342</v>
+        <v>46.5300796819034</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03206602679364218</v>
+        <v>0.03206602679364333</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8170678046670307</v>
+        <v>0.8170678046670525</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3930952639039806</v>
+        <v>0.3930952639039991</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3873570358491183</v>
+        <v>0.3873570358491366</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09565453313500263</v>
+        <v>0.09565453313500254</v>
       </c>
       <c r="V40" t="n">
-        <v>0.08130530116388815</v>
+        <v>0.08130530116388598</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002418099999999868</v>
+        <v>0.001962899999995216</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,13 +3780,13 @@
         <v>0.001096040514638732</v>
       </c>
       <c r="F41" t="n">
-        <v>39.35261238670589</v>
+        <v>39.35261238670591</v>
       </c>
       <c r="G41" t="n">
-        <v>98.31494653213464</v>
+        <v>98.31494653213458</v>
       </c>
       <c r="H41" t="n">
-        <v>12.33398722231556</v>
+        <v>12.33398722231557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3807,28 +3807,28 @@
         <v>38.67756631959967</v>
       </c>
       <c r="O41" t="n">
-        <v>24.5687659551716</v>
+        <v>24.56876595517159</v>
       </c>
       <c r="P41" t="n">
-        <v>38.03986308271605</v>
+        <v>38.03986308271607</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03002943888863207</v>
+        <v>0.03002943888863269</v>
       </c>
       <c r="R41" t="n">
-        <v>0.7405438485879428</v>
+        <v>0.7405438485879787</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3606291327625246</v>
+        <v>0.3606291327625426</v>
       </c>
       <c r="T41" t="n">
-        <v>0.227699073021766</v>
+        <v>0.2276990730217688</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09399045813147479</v>
+        <v>0.09399045813147502</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0846804146539907</v>
+        <v>0.08468041465398946</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.005792599999999481</v>
+        <v>0.002133700000001681</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>40.2668684242158</v>
       </c>
       <c r="G42" t="n">
-        <v>63.01332696634921</v>
+        <v>63.01332696634915</v>
       </c>
       <c r="H42" t="n">
-        <v>4.09622896260454</v>
+        <v>4.096228962604544</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>7.911498915863835</v>
       </c>
       <c r="P42" t="n">
-        <v>40.26430643863758</v>
+        <v>40.26430643863759</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02858522943158854</v>
+        <v>0.02858522943158722</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6266014449045582</v>
+        <v>0.6266014449045539</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1560765179604651</v>
+        <v>0.1560765179604544</v>
       </c>
       <c r="T42" t="n">
-        <v>0.761155484761026</v>
+        <v>0.7611554847609807</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08720193628973975</v>
+        <v>0.0872019362897398</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6124715680061329</v>
+        <v>0.612471568006137</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001984399999999553</v>
+        <v>0.001606299999998839</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>39.95651883359004</v>
       </c>
       <c r="G43" t="n">
-        <v>69.05564821811771</v>
+        <v>69.05564821811788</v>
       </c>
       <c r="H43" t="n">
-        <v>2.450514762650226</v>
+        <v>2.450514762650222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>5.900529603030643</v>
       </c>
       <c r="P43" t="n">
-        <v>38.59576568128039</v>
+        <v>38.59576568128038</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02720436591547099</v>
+        <v>0.02720436591547147</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6327976441382356</v>
+        <v>0.632797644138238</v>
       </c>
       <c r="S43" t="n">
-        <v>0.122151136035512</v>
+        <v>0.1221511360355118</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9198695765523413</v>
+        <v>0.9198695765523659</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09020842346870689</v>
+        <v>0.09020842346870678</v>
       </c>
       <c r="V43" t="n">
-        <v>1.462573628153335</v>
+        <v>1.462573628153343</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.004094700000001339</v>
+        <v>0.001681599999997729</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.06233734465888745</v>
       </c>
       <c r="F44" t="n">
-        <v>39.83471354165069</v>
+        <v>39.83471354165071</v>
       </c>
       <c r="G44" t="n">
-        <v>69.22659302386738</v>
+        <v>69.22659302386737</v>
       </c>
       <c r="H44" t="n">
-        <v>13.90532665555</v>
+        <v>13.90532665555001</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,25 +4056,25 @@
         <v>21.29674359407293</v>
       </c>
       <c r="P44" t="n">
-        <v>46.29815520182188</v>
+        <v>46.29815520182191</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.03098563543130679</v>
+        <v>0.03098563543130352</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8058763423746689</v>
+        <v>0.8058763423745045</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3992363882437272</v>
+        <v>0.3992363882436314</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3742609019032515</v>
+        <v>0.3742609019031847</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08437729560998029</v>
+        <v>0.08437729560998027</v>
       </c>
       <c r="V44" t="n">
-        <v>0.1731759673633881</v>
+        <v>0.1731759673633852</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002442399999999623</v>
+        <v>0.002336299999996072</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4108,7 +4108,7 @@
         <v>359.9765431571372</v>
       </c>
       <c r="F45" t="n">
-        <v>39.41718186210711</v>
+        <v>39.41718186210712</v>
       </c>
       <c r="G45" t="n">
         <v>19.38358935636287</v>
@@ -4138,25 +4138,25 @@
         <v>6.420787484904074</v>
       </c>
       <c r="P45" t="n">
-        <v>49.59454878181941</v>
+        <v>49.59454878181942</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02902550985332706</v>
+        <v>0.02902550985332748</v>
       </c>
       <c r="R45" t="n">
-        <v>0.731491409878033</v>
+        <v>0.7314914098780272</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1637289904843753</v>
+        <v>0.1637289904843788</v>
       </c>
       <c r="T45" t="n">
-        <v>1.029334853429808</v>
+        <v>1.02933485342983</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08799501682311467</v>
+        <v>0.08799501682311474</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2288310029477488</v>
+        <v>0.2288310029477506</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002054100000000503</v>
+        <v>0.001405199999993556</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4193,10 +4193,10 @@
         <v>41.24272539463558</v>
       </c>
       <c r="G46" t="n">
-        <v>149.018098346925</v>
+        <v>149.0180983469251</v>
       </c>
       <c r="H46" t="n">
-        <v>4.353917812854005</v>
+        <v>4.353917812854018</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>6.460187134385414</v>
       </c>
       <c r="P46" t="n">
-        <v>34.36527945726438</v>
+        <v>34.36527945726435</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02726729801788211</v>
+        <v>0.02726729801788225</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5889643485963219</v>
+        <v>0.5889643485963215</v>
       </c>
       <c r="S46" t="n">
-        <v>0.11973799503944</v>
+        <v>0.1197379950394428</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8092215721168788</v>
+        <v>0.8092215721168831</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08978318033543822</v>
+        <v>0.08978318033543821</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1602306193011575</v>
+        <v>0.1602306193011596</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001983399999998525</v>
+        <v>0.001688500000000204</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,7 +4272,7 @@
         <v>0.03094262589846302</v>
       </c>
       <c r="F47" t="n">
-        <v>40.40692819330322</v>
+        <v>40.40692819330324</v>
       </c>
       <c r="G47" t="n">
         <v>178.7694402171196</v>
@@ -4305,22 +4305,22 @@
         <v>24.61700054399024</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02180811809905188</v>
+        <v>0.02180811809905174</v>
       </c>
       <c r="R47" t="n">
-        <v>0.6304451020807612</v>
+        <v>0.6304451020807671</v>
       </c>
       <c r="S47" t="n">
-        <v>0.06089146167579958</v>
+        <v>0.06089146167579874</v>
       </c>
       <c r="T47" t="n">
-        <v>0.9422959150974584</v>
+        <v>0.9422959150974518</v>
       </c>
       <c r="U47" t="n">
         <v>0.0847373938797249</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4808174008290945</v>
+        <v>0.4808174008290947</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001745200000000224</v>
+        <v>0.001987200000002076</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
@@ -4354,7 +4354,7 @@
         <v>0.01633233893786943</v>
       </c>
       <c r="F48" t="n">
-        <v>40.07985143941867</v>
+        <v>40.07985143941866</v>
       </c>
       <c r="G48" t="n">
         <v>141.9280837942953</v>
@@ -4384,25 +4384,25 @@
         <v>18.48784732715968</v>
       </c>
       <c r="P48" t="n">
-        <v>28.79976370923168</v>
+        <v>28.79976370923167</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02862189933305534</v>
+        <v>0.02862189933305537</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6072810426614095</v>
+        <v>0.6072810426614489</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2174997220687626</v>
+        <v>0.2174997220687723</v>
       </c>
       <c r="T48" t="n">
-        <v>0.2495314959779897</v>
+        <v>0.2495314959779867</v>
       </c>
       <c r="U48" t="n">
-        <v>0.09274305118761748</v>
+        <v>0.09274305118761764</v>
       </c>
       <c r="V48" t="n">
-        <v>0.06513050958723296</v>
+        <v>0.06513050958723357</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002219499999998931</v>
+        <v>0.00185409999999564</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4436,10 +4436,10 @@
         <v>0.008498805283750986</v>
       </c>
       <c r="F49" t="n">
-        <v>40.38152625547664</v>
+        <v>40.38152625547666</v>
       </c>
       <c r="G49" t="n">
-        <v>20.86268361727839</v>
+        <v>20.8626836172784</v>
       </c>
       <c r="H49" t="n">
         <v>14.37309211517536</v>
@@ -4466,25 +4466,25 @@
         <v>7.735212337367161</v>
       </c>
       <c r="P49" t="n">
-        <v>54.37684859751634</v>
+        <v>54.37684859751636</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0309852267709719</v>
+        <v>0.03098522677097276</v>
       </c>
       <c r="R49" t="n">
-        <v>0.791323866243928</v>
+        <v>0.7913238662439417</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2096630856109614</v>
+        <v>0.2096630856109735</v>
       </c>
       <c r="T49" t="n">
-        <v>1.00261508053081</v>
+        <v>1.002615080530854</v>
       </c>
       <c r="U49" t="n">
-        <v>0.08962068000949726</v>
+        <v>0.08962068000949741</v>
       </c>
       <c r="V49" t="n">
-        <v>0.06685894582333263</v>
+        <v>0.06685894582333413</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002166499999999516</v>
+        <v>0.001631899999999575</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4521,10 +4521,10 @@
         <v>39.02388114652415</v>
       </c>
       <c r="G50" t="n">
-        <v>2.866645160941922</v>
+        <v>2.866645160941935</v>
       </c>
       <c r="H50" t="n">
-        <v>14.33734724219285</v>
+        <v>14.33734724219284</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4551,22 +4551,22 @@
         <v>53.62916460366475</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.02510258453213185</v>
+        <v>0.02510258453213208</v>
       </c>
       <c r="R50" t="n">
-        <v>1.23379785936679</v>
+        <v>1.233797859366801</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0919822599694044</v>
+        <v>0.09198225996940475</v>
       </c>
       <c r="T50" t="n">
-        <v>2.00778044107959</v>
+        <v>2.007780441079614</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09169103182209926</v>
+        <v>0.0916910318220992</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1399563943239869</v>
+        <v>0.1399563943239848</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.003724000000000061</v>
+        <v>0.001472000000006801</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>39.27055369261943</v>
       </c>
       <c r="G51" t="n">
-        <v>52.11998532567114</v>
+        <v>52.11998532567102</v>
       </c>
       <c r="H51" t="n">
-        <v>6.01038826580566</v>
+        <v>6.010388265805673</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>9.475390545230312</v>
       </c>
       <c r="P51" t="n">
-        <v>41.65098565937811</v>
+        <v>41.65098565937813</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02876309981568785</v>
+        <v>0.02876309981568717</v>
       </c>
       <c r="R51" t="n">
-        <v>0.6255738193436676</v>
+        <v>0.6255738193436614</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1805276931628368</v>
+        <v>0.1805276931628282</v>
       </c>
       <c r="T51" t="n">
-        <v>0.6717763349277671</v>
+        <v>0.6717763349277384</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0819047375290364</v>
+        <v>0.08190473752903643</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1021782537920629</v>
+        <v>0.1021782537920705</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001787600000000111</v>
+        <v>0.001593200000002071</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4685,10 +4685,10 @@
         <v>39.91970816570407</v>
       </c>
       <c r="G52" t="n">
-        <v>86.53305865193241</v>
+        <v>86.53305865193244</v>
       </c>
       <c r="H52" t="n">
-        <v>5.803097026848211</v>
+        <v>5.80309702684821</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>12.14264156646318</v>
       </c>
       <c r="P52" t="n">
-        <v>38.58778567901947</v>
+        <v>38.58778567901946</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02929183771169601</v>
+        <v>0.0292918377116967</v>
       </c>
       <c r="R52" t="n">
-        <v>0.6293139113207712</v>
+        <v>0.6293139113208213</v>
       </c>
       <c r="S52" t="n">
-        <v>0.2043770018278766</v>
+        <v>0.2043770018278941</v>
       </c>
       <c r="T52" t="n">
-        <v>0.5117143615660398</v>
+        <v>0.5117143615660545</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08823524403092263</v>
+        <v>0.08823524403092256</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1066540140228069</v>
+        <v>0.1066540140228055</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.001977800000000585</v>
+        <v>0.001668399999999792</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4764,13 +4764,13 @@
         <v>359.9982111473395</v>
       </c>
       <c r="F53" t="n">
-        <v>39.37155633193085</v>
+        <v>39.37155633193087</v>
       </c>
       <c r="G53" t="n">
-        <v>106.229576715241</v>
+        <v>106.2295767152409</v>
       </c>
       <c r="H53" t="n">
-        <v>3.169554331879403</v>
+        <v>3.169554331879404</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>7.692667471494144</v>
       </c>
       <c r="P53" t="n">
-        <v>36.01631017509151</v>
+        <v>36.01631017509154</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02713491660889291</v>
+        <v>0.0271349166088934</v>
       </c>
       <c r="R53" t="n">
-        <v>0.5629716125072501</v>
+        <v>0.5629716125072489</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1354829224983842</v>
+        <v>0.1354829224983851</v>
       </c>
       <c r="T53" t="n">
-        <v>0.7098724996898451</v>
+        <v>0.7098724996898649</v>
       </c>
       <c r="U53" t="n">
-        <v>0.08758748883501463</v>
+        <v>0.08758748883501451</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6835354692840687</v>
+        <v>0.6835354692840716</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001994399999999175</v>
+        <v>0.001646200000003262</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>40.70864720040748</v>
       </c>
       <c r="G54" t="n">
-        <v>128.4989916744203</v>
+        <v>128.4989916744204</v>
       </c>
       <c r="H54" t="n">
-        <v>2.539149763921956</v>
+        <v>2.539149763921959</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>36.36562548011844</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02661338604882532</v>
+        <v>0.02661338604882455</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6268129379101964</v>
+        <v>0.6268129379101836</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1127700619234063</v>
+        <v>0.1127700619234053</v>
       </c>
       <c r="T54" t="n">
-        <v>0.9195475529942502</v>
+        <v>0.9195475529942072</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0830789589247776</v>
+        <v>0.08307895892477758</v>
       </c>
       <c r="V54" t="n">
-        <v>1.196849179885938</v>
+        <v>1.196849179885933</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001992199999998334</v>
+        <v>0.002132099999997195</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9700413421828</v>
       </c>
       <c r="F55" t="n">
-        <v>39.93009036020855</v>
+        <v>39.93009036020853</v>
       </c>
       <c r="G55" t="n">
         <v>151.3993558017916</v>
       </c>
       <c r="H55" t="n">
-        <v>9.559936516480795</v>
+        <v>9.559936516480787</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>13.70081741933893</v>
       </c>
       <c r="P55" t="n">
-        <v>28.0394727797805</v>
+        <v>28.03947277978049</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02782546547361229</v>
+        <v>0.02782546547361298</v>
       </c>
       <c r="R55" t="n">
-        <v>0.5328789951205221</v>
+        <v>0.5328789951204896</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1674372160446693</v>
+        <v>0.1674372160446702</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3494963722785784</v>
+        <v>0.3494963722785865</v>
       </c>
       <c r="U55" t="n">
         <v>0.1009611196525312</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08667017603237639</v>
+        <v>0.08667017603237757</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00291320000000006</v>
+        <v>0.001641100000000506</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5013,10 +5013,10 @@
         <v>39.16876442309515</v>
       </c>
       <c r="G56" t="n">
-        <v>79.72844552106449</v>
+        <v>79.72844552106446</v>
       </c>
       <c r="H56" t="n">
-        <v>6.877942057625121</v>
+        <v>6.87794205762512</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>13.78866030573352</v>
       </c>
       <c r="P56" t="n">
-        <v>39.15241438567289</v>
+        <v>39.1524143856729</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02899137099441918</v>
+        <v>0.02899137099441912</v>
       </c>
       <c r="R56" t="n">
-        <v>0.6348693710340075</v>
+        <v>0.6348693710340451</v>
       </c>
       <c r="S56" t="n">
-        <v>0.2256675647781123</v>
+        <v>0.2256675647781217</v>
       </c>
       <c r="T56" t="n">
-        <v>0.4613707423218972</v>
+        <v>0.4613707423219003</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08854647580858352</v>
+        <v>0.08854647580858346</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3355451760274761</v>
+        <v>0.3355451760274747</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.00220490000000062</v>
+        <v>0.001980599999996002</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,7 +5092,7 @@
         <v>359.9707348310741</v>
       </c>
       <c r="F57" t="n">
-        <v>40.29878830391322</v>
+        <v>40.29878830391323</v>
       </c>
       <c r="G57" t="n">
         <v>16.58575925429551</v>
@@ -5122,25 +5122,25 @@
         <v>6.611655328979491</v>
       </c>
       <c r="P57" t="n">
-        <v>55.74049941643968</v>
+        <v>55.7404994164397</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03067810418614665</v>
+        <v>0.03067810418614697</v>
       </c>
       <c r="R57" t="n">
-        <v>0.8160038284274003</v>
+        <v>0.8160038284274207</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1920023063794057</v>
+        <v>0.1920023063794123</v>
       </c>
       <c r="T57" t="n">
-        <v>1.130257853838373</v>
+        <v>1.130257853838396</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08792332922424148</v>
+        <v>0.08792332922424151</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1733416264194614</v>
+        <v>0.1733416264194624</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001775900000000163</v>
+        <v>0.001753299999997182</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>176.3649178360067</v>
       </c>
       <c r="H58" t="n">
-        <v>6.584713944639683</v>
+        <v>6.584713944639674</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>3.191647219253767</v>
       </c>
       <c r="P58" t="n">
-        <v>29.69464764991148</v>
+        <v>29.69464764991149</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.02234777973887787</v>
+        <v>0.0223477797388781</v>
       </c>
       <c r="R58" t="n">
-        <v>0.7136169655657897</v>
+        <v>0.7136169655657929</v>
       </c>
       <c r="S58" t="n">
-        <v>0.06745365850862867</v>
+        <v>0.06745365850862906</v>
       </c>
       <c r="T58" t="n">
-        <v>1.090305801339137</v>
+        <v>1.090305801339147</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08638513044161023</v>
+        <v>0.08638513044161018</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2205498918084992</v>
+        <v>0.2205498918085025</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001807100000000617</v>
+        <v>0.001471999999999696</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -5259,10 +5259,10 @@
         <v>38.85656943982902</v>
       </c>
       <c r="G59" t="n">
-        <v>12.05678537743507</v>
+        <v>12.05678537743509</v>
       </c>
       <c r="H59" t="n">
-        <v>7.943997687426521</v>
+        <v>7.943997687426522</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,22 +5286,22 @@
         <v>3.947455581810925</v>
       </c>
       <c r="P59" t="n">
-        <v>45.67106672728781</v>
+        <v>45.67106672728782</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02607444696891316</v>
+        <v>0.02607444696891341</v>
       </c>
       <c r="R59" t="n">
-        <v>0.8061877096054969</v>
+        <v>0.8061877096054908</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1092377227666204</v>
+        <v>0.1092377227666221</v>
       </c>
       <c r="T59" t="n">
-        <v>1.294968126575597</v>
+        <v>1.294968126575606</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09816934595999635</v>
+        <v>0.09816934595999627</v>
       </c>
       <c r="V59" t="n">
         <v>1.095596213181062</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001746400000000037</v>
+        <v>0.001412799999997105</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9843464568117</v>
       </c>
       <c r="F60" t="n">
-        <v>38.75078697116903</v>
+        <v>38.75078697116901</v>
       </c>
       <c r="G60" t="n">
-        <v>62.52874773624995</v>
+        <v>62.52874773624993</v>
       </c>
       <c r="H60" t="n">
-        <v>8.428723658440587</v>
+        <v>8.428723658440582</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>13.94869647714401</v>
       </c>
       <c r="P60" t="n">
-        <v>42.03993822702913</v>
+        <v>42.0399382270291</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02942778219076132</v>
+        <v>0.02942778219076143</v>
       </c>
       <c r="R60" t="n">
-        <v>0.6568182556910445</v>
+        <v>0.6568182556910234</v>
       </c>
       <c r="S60" t="n">
-        <v>0.2440176247153372</v>
+        <v>0.2440176247153339</v>
       </c>
       <c r="T60" t="n">
-        <v>0.4894475902289511</v>
+        <v>0.4894475902289548</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08480421347579094</v>
+        <v>0.08480421347579095</v>
       </c>
       <c r="V60" t="n">
-        <v>0.132895030830802</v>
+        <v>0.1328950308308023</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002387999999999835</v>
+        <v>0.001796200000001136</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5423,10 +5423,10 @@
         <v>39.67119000854587</v>
       </c>
       <c r="G61" t="n">
-        <v>168.8542387699703</v>
+        <v>168.8542387699704</v>
       </c>
       <c r="H61" t="n">
-        <v>5.410949093296893</v>
+        <v>5.410949093296904</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,25 +5450,25 @@
         <v>4.555608326655455</v>
       </c>
       <c r="P61" t="n">
-        <v>30.78140091773109</v>
+        <v>30.78140091773108</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.02417304550296879</v>
+        <v>0.02417304550296909</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6035526185275536</v>
+        <v>0.603552618527552</v>
       </c>
       <c r="S61" t="n">
-        <v>0.08477334072374251</v>
+        <v>0.08477334072374447</v>
       </c>
       <c r="T61" t="n">
-        <v>0.927353223157186</v>
+        <v>0.9273532231571987</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0904155703481913</v>
+        <v>0.09041557034819132</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3950715992753518</v>
+        <v>0.3950715992753592</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001953699999999614</v>
+        <v>0.001766799999998625</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5502,13 +5502,13 @@
         <v>359.9649239762085</v>
       </c>
       <c r="F62" t="n">
-        <v>41.04826971072846</v>
+        <v>41.04826971072845</v>
       </c>
       <c r="G62" t="n">
-        <v>52.22017008613081</v>
+        <v>52.22017008613074</v>
       </c>
       <c r="H62" t="n">
-        <v>5.720767493586808</v>
+        <v>5.720767493586814</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>8.761303218856311</v>
       </c>
       <c r="P62" t="n">
-        <v>43.14093910724448</v>
+        <v>43.14093910724449</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02993396793577692</v>
+        <v>0.02993396793577635</v>
       </c>
       <c r="R62" t="n">
-        <v>0.6768118345971433</v>
+        <v>0.6768118345971113</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1823819667236758</v>
+        <v>0.1823819667236614</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7476582156733971</v>
+        <v>0.7476582156733772</v>
       </c>
       <c r="U62" t="n">
-        <v>0.09635679301806205</v>
+        <v>0.09635679301806208</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3599987306969565</v>
+        <v>0.3599987306969612</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002520799999999213</v>
+        <v>0.00144880000000569</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5587,10 +5587,10 @@
         <v>40.52177087246351</v>
       </c>
       <c r="G63" t="n">
-        <v>147.4680830145255</v>
+        <v>147.4680830145254</v>
       </c>
       <c r="H63" t="n">
-        <v>5.192653762306473</v>
+        <v>5.192653762306468</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>7.905472154035447</v>
       </c>
       <c r="P63" t="n">
-        <v>32.96523522002427</v>
+        <v>32.96523522002428</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02730936424537079</v>
+        <v>0.02730936424537089</v>
       </c>
       <c r="R63" t="n">
-        <v>0.5469805619089823</v>
+        <v>0.5469805619089868</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1304764143481299</v>
+        <v>0.1304764143481323</v>
       </c>
       <c r="T63" t="n">
-        <v>0.6669447010256478</v>
+        <v>0.6669447010256525</v>
       </c>
       <c r="U63" t="n">
-        <v>0.09284474654101867</v>
+        <v>0.09284474654101864</v>
       </c>
       <c r="V63" t="n">
-        <v>0.07447489115599118</v>
+        <v>0.07447489115599076</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.00198520000000002</v>
+        <v>0.001700300000003097</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>41.34515628032442</v>
       </c>
       <c r="G64" t="n">
-        <v>7.037938541638332</v>
+        <v>7.037938541638344</v>
       </c>
       <c r="H64" t="n">
-        <v>7.58995421984821</v>
+        <v>7.58995421984818</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>2.759187820828237</v>
       </c>
       <c r="P64" t="n">
-        <v>47.82355247975994</v>
+        <v>47.82355247975991</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.0265494327174112</v>
+        <v>0.02654943271741147</v>
       </c>
       <c r="R64" t="n">
-        <v>1.060952693002986</v>
+        <v>1.060952693003001</v>
       </c>
       <c r="S64" t="n">
-        <v>0.09691382654993956</v>
+        <v>0.09691382654993988</v>
       </c>
       <c r="T64" t="n">
-        <v>1.711275932282518</v>
+        <v>1.711275932282547</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08046382880730056</v>
+        <v>0.08046382880730049</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3959420462338197</v>
+        <v>0.395942046233829</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001883000000001189</v>
+        <v>0.002194699999996885</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5751,10 +5751,10 @@
         <v>40.31103212547306</v>
       </c>
       <c r="G65" t="n">
-        <v>100.815028928206</v>
+        <v>100.8150289282059</v>
       </c>
       <c r="H65" t="n">
-        <v>7.815115761442456</v>
+        <v>7.815115761442457</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>16.10492932450757</v>
       </c>
       <c r="P65" t="n">
-        <v>37.40282786334485</v>
+        <v>37.40282786334487</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.02998170957071258</v>
+        <v>0.0299817095707137</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6731832109082916</v>
+        <v>0.6731832109083178</v>
       </c>
       <c r="S65" t="n">
-        <v>0.2502824686188402</v>
+        <v>0.2502824686188553</v>
       </c>
       <c r="T65" t="n">
-        <v>0.3747447201623912</v>
+        <v>0.3747447201624078</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08637227290719776</v>
+        <v>0.08637227290719783</v>
       </c>
       <c r="V65" t="n">
-        <v>0.05356124969825014</v>
+        <v>0.05356124969824964</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00227999999999895</v>
+        <v>0.001818700000001172</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.08237321034825001</v>
       </c>
       <c r="F66" t="n">
-        <v>40.06647257323316</v>
+        <v>40.0664725732332</v>
       </c>
       <c r="G66" t="n">
-        <v>70.24659096636198</v>
+        <v>70.24659096636209</v>
       </c>
       <c r="H66" t="n">
-        <v>9.516761469349927</v>
+        <v>9.51676146934993</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>16.16747058011867</v>
       </c>
       <c r="P66" t="n">
-        <v>43.01074775682005</v>
+        <v>43.01074775682009</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.03029883570658103</v>
+        <v>0.03029883570658088</v>
       </c>
       <c r="R66" t="n">
-        <v>0.7254594719907013</v>
+        <v>0.7254594719907316</v>
       </c>
       <c r="S66" t="n">
-        <v>0.289005184886458</v>
+        <v>0.289005184886465</v>
       </c>
       <c r="T66" t="n">
         <v>0.4416158920985852</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09717214767793322</v>
+        <v>0.09717214767793327</v>
       </c>
       <c r="V66" t="n">
-        <v>0.1425697858870982</v>
+        <v>0.1425697858870988</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002199800000001417</v>
+        <v>0.001748400000003869</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>39.83746932373387</v>
       </c>
       <c r="G67" t="n">
-        <v>38.63545928095356</v>
+        <v>38.63545928095355</v>
       </c>
       <c r="H67" t="n">
-        <v>3.342931253259179</v>
+        <v>3.34293125325918</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>40.52437815211239</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02702648042813659</v>
+        <v>0.02702648042813694</v>
       </c>
       <c r="R67" t="n">
-        <v>0.6772412055973287</v>
+        <v>0.6772412055973331</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1182527166279133</v>
+        <v>0.1182527166279127</v>
       </c>
       <c r="T67" t="n">
-        <v>1.024342743060573</v>
+        <v>1.02434274306059</v>
       </c>
       <c r="U67" t="n">
-        <v>0.08929375907726586</v>
+        <v>0.08929375907726581</v>
       </c>
       <c r="V67" t="n">
-        <v>0.05684857907662351</v>
+        <v>0.05684857907662285</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003155899999999434</v>
+        <v>0.001601499999999589</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6000,7 +6000,7 @@
         <v>29.72630087911998</v>
       </c>
       <c r="H68" t="n">
-        <v>4.152489230870319</v>
+        <v>4.15248923087032</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>41.29347321222043</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02656138215594017</v>
+        <v>0.02656138215593956</v>
       </c>
       <c r="R68" t="n">
-        <v>0.6862081386375888</v>
+        <v>0.686208138637583</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1163535560219248</v>
+        <v>0.1163535560219252</v>
       </c>
       <c r="T68" t="n">
-        <v>1.049491058226334</v>
+        <v>1.049491058226302</v>
       </c>
       <c r="U68" t="n">
-        <v>0.08831260018135074</v>
+        <v>0.08831260018135069</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3466299933057552</v>
+        <v>0.3466299933057546</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002006599999999636</v>
+        <v>0.001705800000003421</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>0.07771800151903768</v>
       </c>
       <c r="F69" t="n">
-        <v>39.04481414223904</v>
+        <v>39.04481414223905</v>
       </c>
       <c r="G69" t="n">
         <v>99.16542377331257</v>
@@ -6103,28 +6103,28 @@
         <v>38.98056188996542</v>
       </c>
       <c r="O69" t="n">
-        <v>25.74192003920831</v>
+        <v>25.7419200392083</v>
       </c>
       <c r="P69" t="n">
-        <v>37.72609925081708</v>
+        <v>37.7260992508171</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02936609698879782</v>
+        <v>0.02936609698879587</v>
       </c>
       <c r="R69" t="n">
-        <v>0.7388182091040836</v>
+        <v>0.7388182091039807</v>
       </c>
       <c r="S69" t="n">
-        <v>0.3702077510898847</v>
+        <v>0.3702077510898259</v>
       </c>
       <c r="T69" t="n">
-        <v>0.2115975261233978</v>
+        <v>0.2115975261233894</v>
       </c>
       <c r="U69" t="n">
-        <v>0.08770184487612945</v>
+        <v>0.08770184487612948</v>
       </c>
       <c r="V69" t="n">
-        <v>0.18930923446055</v>
+        <v>0.1893092344605491</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004338499999999357</v>
+        <v>0.002185600000004229</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>39.70090475193695</v>
       </c>
       <c r="G70" t="n">
-        <v>49.60281178100013</v>
+        <v>49.60281178099992</v>
       </c>
       <c r="H70" t="n">
-        <v>3.298466508825756</v>
+        <v>3.298466508825769</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6185,28 +6185,28 @@
         <v>40.50448663765381</v>
       </c>
       <c r="O70" t="n">
-        <v>6.000173822903583</v>
+        <v>6.000173822903595</v>
       </c>
       <c r="P70" t="n">
-        <v>39.86816731645076</v>
+        <v>39.86816731645078</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02715451637260907</v>
+        <v>0.02715451637260843</v>
       </c>
       <c r="R70" t="n">
-        <v>0.6369230320231105</v>
+        <v>0.6369230320231171</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1267274491157011</v>
+        <v>0.1267274491156957</v>
       </c>
       <c r="T70" t="n">
-        <v>0.9158129689235407</v>
+        <v>0.9158129689235164</v>
       </c>
       <c r="U70" t="n">
-        <v>0.09054308869933013</v>
+        <v>0.09054308869933025</v>
       </c>
       <c r="V70" t="n">
-        <v>0.2602687419921108</v>
+        <v>0.2602687419920887</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002030500000000046</v>
+        <v>0.00161960000000505</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,10 +6240,10 @@
         <v>0.04592846536830585</v>
       </c>
       <c r="F71" t="n">
-        <v>38.40095835878859</v>
+        <v>38.40095835878861</v>
       </c>
       <c r="G71" t="n">
-        <v>53.34852952229909</v>
+        <v>53.34852952229911</v>
       </c>
       <c r="H71" t="n">
         <v>11.98272183402846</v>
@@ -6267,28 +6267,28 @@
         <v>48.38554590561366</v>
       </c>
       <c r="O71" t="n">
-        <v>16.0179833244867</v>
+        <v>16.01798332448669</v>
       </c>
       <c r="P71" t="n">
-        <v>46.16039774400342</v>
+        <v>46.16039774400343</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02982348595996669</v>
+        <v>0.02982348595996628</v>
       </c>
       <c r="R71" t="n">
-        <v>0.7101524107787811</v>
+        <v>0.71015241077879</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3017509850623937</v>
+        <v>0.3017509850623942</v>
       </c>
       <c r="T71" t="n">
-        <v>0.4891764863159879</v>
+        <v>0.4891764863159805</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09410528795181464</v>
+        <v>0.0941052879518144</v>
       </c>
       <c r="V71" t="n">
-        <v>0.2356218174318159</v>
+        <v>0.2356218174318163</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002205200000000573</v>
+        <v>0.001985099999998852</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6355,19 +6355,19 @@
         <v>21.68275230580891</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02585569174407394</v>
+        <v>0.02585569174407366</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4350717437241219</v>
+        <v>0.4350717437241147</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1265232515899096</v>
+        <v>0.1265232515899068</v>
       </c>
       <c r="T72" t="n">
-        <v>0.3324425777376985</v>
+        <v>0.3324425777376962</v>
       </c>
       <c r="U72" t="n">
-        <v>0.09084674429005446</v>
+        <v>0.0908467442900545</v>
       </c>
       <c r="V72" t="n">
         <v>0.07491321150467602</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002171900000000448</v>
+        <v>0.001647300000001906</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -6437,19 +6437,19 @@
         <v>44.65543080481796</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02939601755968221</v>
+        <v>0.02939601755968322</v>
       </c>
       <c r="R73" t="n">
-        <v>0.678625086939498</v>
+        <v>0.6786250869395308</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1721338723913849</v>
+        <v>0.1721338723914026</v>
       </c>
       <c r="T73" t="n">
-        <v>0.8329127960281278</v>
+        <v>0.832912796028169</v>
       </c>
       <c r="U73" t="n">
-        <v>0.08809655553236777</v>
+        <v>0.08809655553236771</v>
       </c>
       <c r="V73" t="n">
         <v>0.39385495808493</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001750099999998866</v>
+        <v>0.001518799999999487</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6489,10 +6489,10 @@
         <v>39.9458748948479</v>
       </c>
       <c r="G74" t="n">
-        <v>18.40912711712208</v>
+        <v>18.4091271171221</v>
       </c>
       <c r="H74" t="n">
-        <v>12.01773380780207</v>
+        <v>12.01773380780204</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>6.383900323818492</v>
       </c>
       <c r="P74" t="n">
-        <v>51.33108428323541</v>
+        <v>51.33108428323538</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02962339344196717</v>
+        <v>0.02962339344196692</v>
       </c>
       <c r="R74" t="n">
-        <v>0.7623875662885399</v>
+        <v>0.7623875662885319</v>
       </c>
       <c r="S74" t="n">
-        <v>0.1705114127876023</v>
+        <v>0.1705114127875952</v>
       </c>
       <c r="T74" t="n">
-        <v>1.070852166933035</v>
+        <v>1.070852166933011</v>
       </c>
       <c r="U74" t="n">
-        <v>0.09079938818844238</v>
+        <v>0.09079938818844241</v>
       </c>
       <c r="V74" t="n">
-        <v>0.232202629881935</v>
+        <v>0.2322026298819285</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002667200000001202</v>
+        <v>0.001964400000005639</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6574,7 +6574,7 @@
         <v>114.2056067072075</v>
       </c>
       <c r="H75" t="n">
-        <v>9.746310731352299</v>
+        <v>9.746310731352295</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>35.5425268218331</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.03053417852475961</v>
+        <v>0.03053417852475964</v>
       </c>
       <c r="R75" t="n">
-        <v>0.7109419654253447</v>
+        <v>0.7109419654253905</v>
       </c>
       <c r="S75" t="n">
-        <v>0.2817461564522113</v>
+        <v>0.2817461564522263</v>
       </c>
       <c r="T75" t="n">
-        <v>0.2830769130696099</v>
+        <v>0.283076913069607</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0819477866856362</v>
+        <v>0.08194778668563613</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1834863978261615</v>
+        <v>0.1834863978261606</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002429300000001078</v>
+        <v>0.002019300000000612</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6650,13 +6650,13 @@
         <v>359.9730187429729</v>
       </c>
       <c r="F76" t="n">
-        <v>39.76808567206775</v>
+        <v>39.76808567206776</v>
       </c>
       <c r="G76" t="n">
-        <v>36.56890234163224</v>
+        <v>36.56890234163223</v>
       </c>
       <c r="H76" t="n">
-        <v>12.25830538620876</v>
+        <v>12.25830538620877</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6680,25 +6680,25 @@
         <v>11.44778742256385</v>
       </c>
       <c r="P76" t="n">
-        <v>49.95979669452046</v>
+        <v>49.95979669452048</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0309223772345294</v>
+        <v>0.03092237723452872</v>
       </c>
       <c r="R76" t="n">
-        <v>0.7430823839852149</v>
+        <v>0.7430823839852024</v>
       </c>
       <c r="S76" t="n">
-        <v>0.2560879225532314</v>
+        <v>0.2560879225532227</v>
       </c>
       <c r="T76" t="n">
-        <v>0.6972557052952089</v>
+        <v>0.6972557052951874</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08194500958754009</v>
+        <v>0.08194500958754006</v>
       </c>
       <c r="V76" t="n">
-        <v>0.05287987748403811</v>
+        <v>0.05287987748403693</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002171599999998719</v>
+        <v>0.001808699999997998</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6735,10 +6735,10 @@
         <v>40.98319598471412</v>
       </c>
       <c r="G77" t="n">
-        <v>96.47591038469264</v>
+        <v>96.47591038469278</v>
       </c>
       <c r="H77" t="n">
-        <v>3.99072992131276</v>
+        <v>3.990729921312759</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>8.845879958430205</v>
       </c>
       <c r="P77" t="n">
-        <v>38.28203994708927</v>
+        <v>38.28203994708926</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.02906925683124834</v>
+        <v>0.02906925683124796</v>
       </c>
       <c r="R77" t="n">
-        <v>0.6193278028406699</v>
+        <v>0.6193278028406828</v>
       </c>
       <c r="S77" t="n">
-        <v>0.1634323968848699</v>
+        <v>0.1634323968848703</v>
       </c>
       <c r="T77" t="n">
-        <v>0.6732635440134125</v>
+        <v>0.6732635440133979</v>
       </c>
       <c r="U77" t="n">
-        <v>0.08625679455873915</v>
+        <v>0.08625679455873914</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3649480384436021</v>
+        <v>0.3649480384435984</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001994800000000296</v>
+        <v>0.002271200000002693</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,10 +6814,10 @@
         <v>359.9790656350176</v>
       </c>
       <c r="F78" t="n">
-        <v>39.74744806598327</v>
+        <v>39.74744806598326</v>
       </c>
       <c r="G78" t="n">
-        <v>55.89343763730128</v>
+        <v>55.89343763730124</v>
       </c>
       <c r="H78" t="n">
         <v>12.80521983272039</v>
@@ -6844,25 +6844,25 @@
         <v>16.87705965474497</v>
       </c>
       <c r="P78" t="n">
-        <v>47.80649755834293</v>
+        <v>47.80649755834292</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.03129585947490691</v>
+        <v>0.03129585947490689</v>
       </c>
       <c r="R78" t="n">
-        <v>0.774128151816445</v>
+        <v>0.7741281518164139</v>
       </c>
       <c r="S78" t="n">
-        <v>0.3369568296108841</v>
+        <v>0.3369568296108733</v>
       </c>
       <c r="T78" t="n">
-        <v>0.4883265343693768</v>
+        <v>0.4883265343693695</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0858024745602619</v>
+        <v>0.08580247456026187</v>
       </c>
       <c r="V78" t="n">
-        <v>0.02387568337346052</v>
+        <v>0.02387568337346173</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002535699999999252</v>
+        <v>0.002067100000004984</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6896,13 +6896,13 @@
         <v>0.01088600077946891</v>
       </c>
       <c r="F79" t="n">
-        <v>39.86139677097224</v>
+        <v>39.86139677097225</v>
       </c>
       <c r="G79" t="n">
-        <v>165.152324749769</v>
+        <v>165.1523247497689</v>
       </c>
       <c r="H79" t="n">
-        <v>10.50737350692193</v>
+        <v>10.50737350692192</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6926,25 +6926,25 @@
         <v>9.979571008121201</v>
       </c>
       <c r="P79" t="n">
-        <v>25.44213809626395</v>
+        <v>25.44213809626397</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.02613230666118111</v>
+        <v>0.02613230666118144</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4559932310518839</v>
+        <v>0.4559932310518921</v>
       </c>
       <c r="S79" t="n">
-        <v>0.1222852626396629</v>
+        <v>0.1222852626396664</v>
       </c>
       <c r="T79" t="n">
-        <v>0.4595590629086192</v>
+        <v>0.4595590629086223</v>
       </c>
       <c r="U79" t="n">
-        <v>0.08987606053164696</v>
+        <v>0.08987606053164705</v>
       </c>
       <c r="V79" t="n">
-        <v>0.06656617286763104</v>
+        <v>0.06656617286763447</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002287400000000162</v>
+        <v>0.001618199999995795</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6978,7 +6978,7 @@
         <v>359.9737852286201</v>
       </c>
       <c r="F80" t="n">
-        <v>41.00281317608168</v>
+        <v>41.00281317608167</v>
       </c>
       <c r="G80" t="n">
         <v>9.75079156293509</v>
@@ -7011,22 +7011,22 @@
         <v>50.69119783052857</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02790834721580153</v>
+        <v>0.02790834721580197</v>
       </c>
       <c r="R80" t="n">
-        <v>0.9367356847231909</v>
+        <v>0.936735684723202</v>
       </c>
       <c r="S80" t="n">
-        <v>0.1197593729860553</v>
+        <v>0.1197593729860581</v>
       </c>
       <c r="T80" t="n">
-        <v>1.514798746028721</v>
+        <v>1.514798746028762</v>
       </c>
       <c r="U80" t="n">
-        <v>0.09040267553315473</v>
+        <v>0.09040267553315476</v>
       </c>
       <c r="V80" t="n">
-        <v>0.2366518623350222</v>
+        <v>0.2366518623350214</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001978899999999228</v>
+        <v>0.001592100000003427</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7060,13 +7060,13 @@
         <v>359.9123865044298</v>
       </c>
       <c r="F81" t="n">
-        <v>40.59829011380102</v>
+        <v>40.59829011380101</v>
       </c>
       <c r="G81" t="n">
-        <v>85.10489905180876</v>
+        <v>85.10489905180867</v>
       </c>
       <c r="H81" t="n">
-        <v>9.092737635550325</v>
+        <v>9.092737635550327</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>17.11166339386005</v>
       </c>
       <c r="P81" t="n">
-        <v>40.71529744013203</v>
+        <v>40.71529744013205</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.03118558365424503</v>
+        <v>0.0311855836542426</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7280396226200445</v>
+        <v>0.7280396226199728</v>
       </c>
       <c r="S81" t="n">
-        <v>0.2897447141511642</v>
+        <v>0.2897447141511286</v>
       </c>
       <c r="T81" t="n">
-        <v>0.3850932843675933</v>
+        <v>0.385093284367559</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08491140566792346</v>
+        <v>0.08491140566792342</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3354340506641562</v>
+        <v>0.3354340506641602</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.004171700000000556</v>
+        <v>0.002114400000003513</v>
       </c>
       <c r="Y81" t="n">
         <v>10</v>
@@ -7142,13 +7142,13 @@
         <v>359.9902501533111</v>
       </c>
       <c r="F82" t="n">
-        <v>39.74940475198296</v>
+        <v>39.74940475198298</v>
       </c>
       <c r="G82" t="n">
-        <v>95.82402109116003</v>
+        <v>95.82402109116008</v>
       </c>
       <c r="H82" t="n">
-        <v>11.22889287955551</v>
+        <v>11.22889287955552</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>22.16303324508146</v>
       </c>
       <c r="P82" t="n">
-        <v>38.61912732636854</v>
+        <v>38.61912732636855</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.03031531123178461</v>
+        <v>0.03031531123178393</v>
       </c>
       <c r="R82" t="n">
-        <v>0.7350758204175779</v>
+        <v>0.7350758204175796</v>
       </c>
       <c r="S82" t="n">
-        <v>0.3367136465441029</v>
+        <v>0.336713646544099</v>
       </c>
       <c r="T82" t="n">
-        <v>0.267022256745396</v>
+        <v>0.2670222567453875</v>
       </c>
       <c r="U82" t="n">
-        <v>0.08592426402883797</v>
+        <v>0.08592426402883815</v>
       </c>
       <c r="V82" t="n">
-        <v>0.1252664985158698</v>
+        <v>0.1252664985158701</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002515999999999963</v>
+        <v>0.002022099999997806</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>40.95878161832437</v>
       </c>
       <c r="G83" t="n">
-        <v>70.72350163189934</v>
+        <v>70.72350163189935</v>
       </c>
       <c r="H83" t="n">
-        <v>6.73308067156107</v>
+        <v>6.733080671561068</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7251,28 +7251,28 @@
         <v>42.05119175911687</v>
       </c>
       <c r="O83" t="n">
-        <v>12.17460036580862</v>
+        <v>12.17460036580861</v>
       </c>
       <c r="P83" t="n">
         <v>41.95326687594437</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.03030173913742313</v>
+        <v>0.03030173913742406</v>
       </c>
       <c r="R83" t="n">
-        <v>0.6918744830092232</v>
+        <v>0.691874483009231</v>
       </c>
       <c r="S83" t="n">
-        <v>0.2268403617719179</v>
+        <v>0.226840361771928</v>
       </c>
       <c r="T83" t="n">
-        <v>0.558581370529013</v>
+        <v>0.5585813705290379</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0910619595210496</v>
+        <v>0.0910619595210497</v>
       </c>
       <c r="V83" t="n">
-        <v>0.316700552595881</v>
+        <v>0.3167005525958817</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002754899999999338</v>
+        <v>0.001815399999998135</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.9514133818177</v>
       </c>
       <c r="F84" t="n">
-        <v>40.04848164399095</v>
+        <v>40.04848164399096</v>
       </c>
       <c r="G84" t="n">
-        <v>47.27221837163245</v>
+        <v>47.27221837163242</v>
       </c>
       <c r="H84" t="n">
-        <v>11.3454105231999</v>
+        <v>11.34541052319992</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>13.42230424294034</v>
       </c>
       <c r="P84" t="n">
-        <v>47.98030884915303</v>
+        <v>47.98030884915305</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.03122392816183363</v>
+        <v>0.03122392816183343</v>
       </c>
       <c r="R84" t="n">
-        <v>0.7484826945560349</v>
+        <v>0.7484826945559796</v>
       </c>
       <c r="S84" t="n">
-        <v>0.280084429711501</v>
+        <v>0.2800844297114821</v>
       </c>
       <c r="T84" t="n">
-        <v>0.5899700272781074</v>
+        <v>0.5899700272780977</v>
       </c>
       <c r="U84" t="n">
-        <v>0.09699999148696646</v>
+        <v>0.09699999148696643</v>
       </c>
       <c r="V84" t="n">
-        <v>0.2529691958460505</v>
+        <v>0.2529691958460559</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.0022316</v>
+        <v>0.001904899999999543</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7391,7 +7391,7 @@
         <v>39.25494766980341</v>
       </c>
       <c r="G85" t="n">
-        <v>46.2211791534279</v>
+        <v>46.22117915342789</v>
       </c>
       <c r="H85" t="n">
         <v>10.92056741528456</v>
@@ -7421,22 +7421,22 @@
         <v>46.92565295775622</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.03032991124992722</v>
+        <v>0.03032991124992779</v>
       </c>
       <c r="R85" t="n">
-        <v>0.7125949680481775</v>
+        <v>0.712594968048209</v>
       </c>
       <c r="S85" t="n">
-        <v>0.2637601586215718</v>
+        <v>0.2637601586215833</v>
       </c>
       <c r="T85" t="n">
-        <v>0.5861771707019012</v>
+        <v>0.5861771707019203</v>
       </c>
       <c r="U85" t="n">
         <v>0.08910180960370963</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1079779829782875</v>
+        <v>0.1079779829782871</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00221170000000015</v>
+        <v>0.001793399999996836</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.312337562039428</v>
       </c>
       <c r="H86" t="n">
-        <v>6.984986763469473</v>
+        <v>6.98498676346947</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>3.002492979449064</v>
       </c>
       <c r="P86" t="n">
-        <v>46.6123602958766</v>
+        <v>46.61236029587658</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.02690206337494403</v>
+        <v>0.0269020633749437</v>
       </c>
       <c r="R86" t="n">
-        <v>0.9990278634677598</v>
+        <v>0.9990278634677745</v>
       </c>
       <c r="S86" t="n">
-        <v>0.09865320970275536</v>
+        <v>0.09865320970275228</v>
       </c>
       <c r="T86" t="n">
-        <v>1.610667658012924</v>
+        <v>1.610667658012899</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1005758211180367</v>
+        <v>0.1005758211180366</v>
       </c>
       <c r="V86" t="n">
-        <v>0.1764729988648483</v>
+        <v>0.1764729988648487</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.00181919999999991</v>
+        <v>0.001426000000002148</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7585,19 +7585,19 @@
         <v>35.34713284876394</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02960634336108153</v>
+        <v>0.02960634336108127</v>
       </c>
       <c r="R87" t="n">
-        <v>0.674294467688519</v>
+        <v>0.6742944676885999</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2665546045747998</v>
+        <v>0.2665546045748193</v>
       </c>
       <c r="T87" t="n">
-        <v>0.2962722717003726</v>
+        <v>0.296272271700366</v>
       </c>
       <c r="U87" t="n">
-        <v>0.09186705844695005</v>
+        <v>0.09186705844695009</v>
       </c>
       <c r="V87" t="n">
         <v>0.02965726709303039</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002431500000000142</v>
+        <v>0.002526299999999537</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7634,10 +7634,10 @@
         <v>359.9905410830502</v>
       </c>
       <c r="F88" t="n">
-        <v>40.02150492154758</v>
+        <v>40.02150492154757</v>
       </c>
       <c r="G88" t="n">
-        <v>40.20680977825394</v>
+        <v>40.20680977825393</v>
       </c>
       <c r="H88" t="n">
         <v>4.976168009550953</v>
@@ -7664,25 +7664,25 @@
         <v>6.819625367953551</v>
       </c>
       <c r="P88" t="n">
-        <v>42.26464347290233</v>
+        <v>42.26464347290232</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.02830432288074763</v>
+        <v>0.02830432288074739</v>
       </c>
       <c r="R88" t="n">
-        <v>0.6531668881397219</v>
+        <v>0.6531668881397065</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1468296296607581</v>
+        <v>0.1468296296607546</v>
       </c>
       <c r="T88" t="n">
-        <v>0.8787464923916639</v>
+        <v>0.8787464923916531</v>
       </c>
       <c r="U88" t="n">
-        <v>0.09120049239306002</v>
+        <v>0.09120049239305995</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3600076933486044</v>
+        <v>0.3600076933486047</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003508799999998757</v>
+        <v>0.001634799999997938</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>0.002864042681238761</v>
       </c>
       <c r="F89" t="n">
-        <v>40.1900756417169</v>
+        <v>40.19007564171689</v>
       </c>
       <c r="G89" t="n">
         <v>118.4389166591073</v>
@@ -7746,25 +7746,25 @@
         <v>29.43794875897503</v>
       </c>
       <c r="P89" t="n">
-        <v>33.60297734799444</v>
+        <v>33.60297734799442</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.03017127079702172</v>
+        <v>0.03017127079702456</v>
       </c>
       <c r="R89" t="n">
-        <v>0.772672762582174</v>
+        <v>0.772672762582316</v>
       </c>
       <c r="S89" t="n">
-        <v>0.3793056862612805</v>
+        <v>0.3793056862613547</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1602542266119928</v>
+        <v>0.160254226611993</v>
       </c>
       <c r="U89" t="n">
-        <v>0.09082665025047057</v>
+        <v>0.09082665025047056</v>
       </c>
       <c r="V89" t="n">
-        <v>0.02894350013662441</v>
+        <v>0.02894350013662274</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002681900000000681</v>
+        <v>0.002183500000001004</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>0.002356495967608664</v>
       </c>
       <c r="F90" t="n">
-        <v>41.01778412482484</v>
+        <v>41.01778412482481</v>
       </c>
       <c r="G90" t="n">
-        <v>115.8232521583361</v>
+        <v>115.8232521583362</v>
       </c>
       <c r="H90" t="n">
-        <v>9.349654637953343</v>
+        <v>9.349654637953336</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>34.2946546952799</v>
       </c>
       <c r="O90" t="n">
-        <v>18.58861119219467</v>
+        <v>18.58861119219465</v>
       </c>
       <c r="P90" t="n">
-        <v>35.35881621230323</v>
+        <v>35.3588162123032</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.0303412495515331</v>
+        <v>0.03034124955153281</v>
       </c>
       <c r="R90" t="n">
-        <v>0.7016699259174907</v>
+        <v>0.7016699259174755</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2703142757418568</v>
+        <v>0.2703142757418524</v>
       </c>
       <c r="T90" t="n">
         <v>0.297964116693093</v>
       </c>
       <c r="U90" t="n">
-        <v>0.08966371930058593</v>
+        <v>0.08966371930058596</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1468084657183038</v>
+        <v>0.146808465718292</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.003205499999999972</v>
+        <v>0.002599199999998802</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,10 +7883,10 @@
         <v>40.0184808990654</v>
       </c>
       <c r="G91" t="n">
-        <v>96.52540466520421</v>
+        <v>96.52540466520425</v>
       </c>
       <c r="H91" t="n">
-        <v>5.907960044096039</v>
+        <v>5.907960044096038</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>12.72427386225358</v>
       </c>
       <c r="P91" t="n">
-        <v>37.51779203101386</v>
+        <v>37.51779203101385</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02907687218977318</v>
+        <v>0.02907687218977317</v>
       </c>
       <c r="R91" t="n">
-        <v>0.6259819234617737</v>
+        <v>0.6259819234617833</v>
       </c>
       <c r="S91" t="n">
-        <v>0.20614184031082</v>
+        <v>0.2061418403108226</v>
       </c>
       <c r="T91" t="n">
         <v>0.4803404932866374</v>
       </c>
       <c r="U91" t="n">
-        <v>0.09355045457926801</v>
+        <v>0.09355045457926807</v>
       </c>
       <c r="V91" t="n">
-        <v>0.2719936834750086</v>
+        <v>0.2719936834750107</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002042899999999293</v>
+        <v>0.001671399999999323</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7962,13 +7962,13 @@
         <v>359.9702875484142</v>
       </c>
       <c r="F92" t="n">
-        <v>39.01658409015394</v>
+        <v>39.01658409015393</v>
       </c>
       <c r="G92" t="n">
-        <v>22.89011327432409</v>
+        <v>22.89011327432408</v>
       </c>
       <c r="H92" t="n">
-        <v>5.847383426400974</v>
+        <v>5.847383426400968</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>5.171572239713652</v>
       </c>
       <c r="P92" t="n">
-        <v>43.03972074640684</v>
+        <v>43.03972074640682</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.02677512251831393</v>
+        <v>0.02677512251831363</v>
       </c>
       <c r="R92" t="n">
-        <v>0.6919661520981671</v>
+        <v>0.6919661520981648</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1222509422571288</v>
+        <v>0.1222509422571271</v>
       </c>
       <c r="T92" t="n">
-        <v>1.055162014533487</v>
+        <v>1.055162014533469</v>
       </c>
       <c r="U92" t="n">
-        <v>0.09643932739681507</v>
+        <v>0.09643932739681502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.625678247084928</v>
+        <v>0.625678247084924</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001949599999999663</v>
+        <v>0.001576000000000022</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>39.30205138638701</v>
       </c>
       <c r="G93" t="n">
-        <v>35.25327806296285</v>
+        <v>35.25327806296279</v>
       </c>
       <c r="H93" t="n">
-        <v>7.056243729755601</v>
+        <v>7.056243729755616</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>7.866257661511281</v>
       </c>
       <c r="P93" t="n">
-        <v>44.01446666523433</v>
+        <v>44.01446666523434</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02865517242820902</v>
+        <v>0.02865517242820888</v>
       </c>
       <c r="R93" t="n">
-        <v>0.6503397769091901</v>
+        <v>0.6503397769092157</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1668877413161112</v>
+        <v>0.1668877413161166</v>
       </c>
       <c r="T93" t="n">
         <v>0.8072988586769093</v>
       </c>
       <c r="U93" t="n">
-        <v>0.08464080582167745</v>
+        <v>0.08464080582167749</v>
       </c>
       <c r="V93" t="n">
-        <v>0.08212975740724018</v>
+        <v>0.08212975740724651</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001858300000000312</v>
+        <v>0.001510600000003137</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8126,7 +8126,7 @@
         <v>0.07136457826821854</v>
       </c>
       <c r="F94" t="n">
-        <v>39.29540845578651</v>
+        <v>39.29540845578649</v>
       </c>
       <c r="G94" t="n">
         <v>161.8240647092103</v>
@@ -8156,25 +8156,25 @@
         <v>15.3502602617189</v>
       </c>
       <c r="P94" t="n">
-        <v>22.81303834344972</v>
+        <v>22.8130383434497</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.02645909036965758</v>
+        <v>0.02645909036965784</v>
       </c>
       <c r="R94" t="n">
-        <v>0.4835251789509875</v>
+        <v>0.4835251789509785</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1522144551821958</v>
+        <v>0.1522144551821975</v>
       </c>
       <c r="T94" t="n">
-        <v>0.2686716445200949</v>
+        <v>0.2686716445200961</v>
       </c>
       <c r="U94" t="n">
-        <v>0.08007659799469923</v>
+        <v>0.08007659799469917</v>
       </c>
       <c r="V94" t="n">
-        <v>0.2404810159890343</v>
+        <v>0.240481015989035</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00222570000000033</v>
+        <v>0.001915900000000192</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -8208,7 +8208,7 @@
         <v>359.985690856688</v>
       </c>
       <c r="F95" t="n">
-        <v>39.28795814574962</v>
+        <v>39.28795814574961</v>
       </c>
       <c r="G95" t="n">
         <v>109.0777046677032</v>
@@ -8241,22 +8241,22 @@
         <v>35.08871136272491</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.02952620439284324</v>
+        <v>0.02952620439284285</v>
       </c>
       <c r="R95" t="n">
-        <v>0.6868959971901345</v>
+        <v>0.6868959971901362</v>
       </c>
       <c r="S95" t="n">
-        <v>0.3017951811035131</v>
+        <v>0.3017951811035132</v>
       </c>
       <c r="T95" t="n">
-        <v>0.2363889462389433</v>
+        <v>0.2363889462389383</v>
       </c>
       <c r="U95" t="n">
-        <v>0.08097434097412531</v>
+        <v>0.08097434097412522</v>
       </c>
       <c r="V95" t="n">
-        <v>0.08906184055292335</v>
+        <v>0.08906184055292451</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004383600000000598</v>
+        <v>0.001999000000004969</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.01015836510910371</v>
       </c>
       <c r="F96" t="n">
-        <v>39.43334158702554</v>
+        <v>39.43334158702557</v>
       </c>
       <c r="G96" t="n">
         <v>129.181728381754</v>
       </c>
       <c r="H96" t="n">
-        <v>10.06103926476947</v>
+        <v>10.06103926476948</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8317,28 +8317,28 @@
         <v>31.41112353494288</v>
       </c>
       <c r="O96" t="n">
-        <v>19.84720586932197</v>
+        <v>19.84720586932198</v>
       </c>
       <c r="P96" t="n">
-        <v>31.03261135950789</v>
+        <v>31.03261135950791</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02870910050111778</v>
+        <v>0.0287091005011175</v>
       </c>
       <c r="R96" t="n">
-        <v>0.6270822034679723</v>
+        <v>0.6270822034680141</v>
       </c>
       <c r="S96" t="n">
-        <v>0.2434141161123156</v>
+        <v>0.2434141161123267</v>
       </c>
       <c r="T96" t="n">
-        <v>0.2420685779095872</v>
+        <v>0.24206857790958</v>
       </c>
       <c r="U96" t="n">
-        <v>0.08964336332235179</v>
+        <v>0.08964336332235166</v>
       </c>
       <c r="V96" t="n">
-        <v>0.09828973737333074</v>
+        <v>0.09828973737332818</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.002428799999998787</v>
+        <v>0.001958399999999472</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8375,10 +8375,10 @@
         <v>40.07213144631761</v>
       </c>
       <c r="G97" t="n">
-        <v>39.52571840642687</v>
+        <v>39.52571840642678</v>
       </c>
       <c r="H97" t="n">
-        <v>5.561158688251118</v>
+        <v>5.561158688251131</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8399,28 +8399,28 @@
         <v>42.49750700264286</v>
       </c>
       <c r="O97" t="n">
-        <v>7.232317483046408</v>
+        <v>7.232317483046396</v>
       </c>
       <c r="P97" t="n">
-        <v>42.94488964657128</v>
+        <v>42.9448896465713</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.02865839210204719</v>
+        <v>0.02865839210204799</v>
       </c>
       <c r="R97" t="n">
-        <v>0.6571256206000706</v>
+        <v>0.6571256206000718</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1554771757382295</v>
+        <v>0.1554771757382339</v>
       </c>
       <c r="T97" t="n">
-        <v>0.8525285373360296</v>
+        <v>0.852528537336059</v>
       </c>
       <c r="U97" t="n">
-        <v>0.08494972317260999</v>
+        <v>0.08494972317261001</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1883630094323899</v>
+        <v>0.1883630094323985</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001752699999999052</v>
+        <v>0.001566099999998016</v>
       </c>
       <c r="Y97" t="n">
         <v>7</v>
@@ -8454,13 +8454,13 @@
         <v>0.06802332958435822</v>
       </c>
       <c r="F98" t="n">
-        <v>39.47329644945003</v>
+        <v>39.47329644945005</v>
       </c>
       <c r="G98" t="n">
-        <v>40.17099375233301</v>
+        <v>40.17099375233303</v>
       </c>
       <c r="H98" t="n">
-        <v>12.86450518634792</v>
+        <v>12.86450518634793</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8481,28 +8481,28 @@
         <v>51.74105893626461</v>
       </c>
       <c r="O98" t="n">
-        <v>12.93638335013766</v>
+        <v>12.93638335013767</v>
       </c>
       <c r="P98" t="n">
-        <v>49.9199862254606</v>
+        <v>49.91998622546062</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.03068410298552769</v>
+        <v>0.03068410298552735</v>
       </c>
       <c r="R98" t="n">
-        <v>0.7483686767796592</v>
+        <v>0.7483686767796642</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2807333108646555</v>
+        <v>0.2807333108646509</v>
       </c>
       <c r="T98" t="n">
-        <v>0.6402008279983562</v>
+        <v>0.6402008279983437</v>
       </c>
       <c r="U98" t="n">
-        <v>0.08705373046991895</v>
+        <v>0.08705373046991889</v>
       </c>
       <c r="V98" t="n">
-        <v>0.2893882944368877</v>
+        <v>0.2893882944368863</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002284799999999976</v>
+        <v>0.00182569999999771</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,7 +8536,7 @@
         <v>0.07255666825733743</v>
       </c>
       <c r="F99" t="n">
-        <v>39.37082818354693</v>
+        <v>39.37082818354692</v>
       </c>
       <c r="G99" t="n">
         <v>151.8449610661962</v>
@@ -8566,25 +8566,25 @@
         <v>23.83659556425756</v>
       </c>
       <c r="P99" t="n">
-        <v>23.37649646438236</v>
+        <v>23.37649646438233</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.02751070032085187</v>
+        <v>0.02751070032085436</v>
       </c>
       <c r="R99" t="n">
-        <v>0.5995137742499633</v>
+        <v>0.5995137742501413</v>
       </c>
       <c r="S99" t="n">
-        <v>0.2209902510376877</v>
+        <v>0.2209902510377483</v>
       </c>
       <c r="T99" t="n">
-        <v>0.1740609073164956</v>
+        <v>0.1740609073165026</v>
       </c>
       <c r="U99" t="n">
-        <v>0.08824872452997194</v>
+        <v>0.08824872452997205</v>
       </c>
       <c r="V99" t="n">
-        <v>0.1199154331286681</v>
+        <v>0.1199154331286703</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002431500000000142</v>
+        <v>0.00197599999999909</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8618,7 +8618,7 @@
         <v>0.09214361811480569</v>
       </c>
       <c r="F100" t="n">
-        <v>38.68937273548566</v>
+        <v>38.68937273548567</v>
       </c>
       <c r="G100" t="n">
         <v>135.5645635164837</v>
@@ -8645,28 +8645,28 @@
         <v>31.16710803662699</v>
       </c>
       <c r="O100" t="n">
-        <v>18.53947140086654</v>
+        <v>18.53947140086655</v>
       </c>
       <c r="P100" t="n">
-        <v>29.33859298182598</v>
+        <v>29.33859298182599</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.02749193869407258</v>
+        <v>0.02749193869407247</v>
       </c>
       <c r="R100" t="n">
-        <v>0.5749804565420656</v>
+        <v>0.5749804565421043</v>
       </c>
       <c r="S100" t="n">
-        <v>0.2142916467683743</v>
+        <v>0.2142916467683819</v>
       </c>
       <c r="T100" t="n">
-        <v>0.2528383286817671</v>
+        <v>0.2528383286817631</v>
       </c>
       <c r="U100" t="n">
-        <v>0.09788187476948144</v>
+        <v>0.0978818747694815</v>
       </c>
       <c r="V100" t="n">
-        <v>0.2504831201531922</v>
+        <v>0.2504831201531916</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002369499999998581</v>
+        <v>0.001965800000000684</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8700,13 +8700,13 @@
         <v>359.9667426551092</v>
       </c>
       <c r="F101" t="n">
-        <v>40.49005714331992</v>
+        <v>40.49005714331989</v>
       </c>
       <c r="G101" t="n">
         <v>120.0851424990091</v>
       </c>
       <c r="H101" t="n">
-        <v>8.983563750024746</v>
+        <v>8.983563750024741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>17.88002933378258</v>
       </c>
       <c r="P101" t="n">
-        <v>34.11750734046483</v>
+        <v>34.11750734046479</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02990537472588541</v>
+        <v>0.02990537472588859</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6654082055377517</v>
+        <v>0.6654082055379239</v>
       </c>
       <c r="S101" t="n">
-        <v>0.2501642098468482</v>
+        <v>0.2501642098469184</v>
       </c>
       <c r="T101" t="n">
-        <v>0.3011392845667682</v>
+        <v>0.3011392845667837</v>
       </c>
       <c r="U101" t="n">
-        <v>0.08747928508185898</v>
+        <v>0.08747928508185897</v>
       </c>
       <c r="V101" t="n">
-        <v>0.09410990598846439</v>
+        <v>0.0941099059884597</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002191599999999738</v>
+        <v>0.001761199999997132</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
